--- a/BackTest/2019-10-17 BackTest XEM.xlsx
+++ b/BackTest/2019-10-17 BackTest XEM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.100000000000009</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>66.66666666666627</v>
+      </c>
       <c r="L12" t="n">
         <v>49.81</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.20000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>57.14285714285671</v>
+      </c>
       <c r="L13" t="n">
         <v>49.94</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.300000000000011</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>59.99999999999962</v>
+      </c>
       <c r="L14" t="n">
         <v>50.03</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.500000000000014</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>49.99999999999956</v>
+      </c>
       <c r="L15" t="n">
         <v>50.10000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.600000000000016</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>42.85714285714256</v>
+      </c>
       <c r="L16" t="n">
         <v>50.19</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.800000000000018</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>59.99999999999981</v>
+      </c>
       <c r="L17" t="n">
         <v>50.27</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.900000000000013</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>59.99999999999962</v>
+      </c>
       <c r="L18" t="n">
         <v>50.37</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.900000000000013</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>57.14285714285671</v>
+      </c>
       <c r="L19" t="n">
         <v>50.46</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.300000000000011</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>29.41176470588231</v>
+      </c>
       <c r="L20" t="n">
         <v>50.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.800000000000011</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>29.41176470588231</v>
+      </c>
       <c r="L21" t="n">
         <v>50.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4.000000000000007</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>11.11111111111129</v>
+      </c>
       <c r="L22" t="n">
         <v>50.63000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.20000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33333333333321</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L23" t="n">
         <v>50.63000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K24" t="n">
-        <v>31.57894736842091</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L24" t="n">
         <v>50.66</v>
@@ -1515,7 +1537,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>21.95121951219508</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L25" t="n">
         <v>50.68000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>25</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L26" t="n">
         <v>50.69000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>23.07692307692305</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>50.7</v>
@@ -1662,7 +1684,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>17.07317073170741</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="L28" t="n">
         <v>50.67</v>
@@ -1711,7 +1733,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>20.93023255813955</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L29" t="n">
         <v>50.67</v>
@@ -1760,7 +1782,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K30" t="n">
-        <v>19.04761904761903</v>
+        <v>-5.263157894736961</v>
       </c>
       <c r="L30" t="n">
         <v>50.71</v>
@@ -1809,7 +1831,7 @@
         <v>5.799999999999997</v>
       </c>
       <c r="K31" t="n">
-        <v>23.80952380952387</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L31" t="n">
         <v>50.71</v>
@@ -1860,7 +1882,7 @@
         <v>5.799999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>13.51351351351356</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L32" t="n">
         <v>50.73</v>
@@ -1911,7 +1933,7 @@
         <v>5.799999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>50.77</v>
@@ -1962,7 +1984,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>5.555555555555457</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L34" t="n">
         <v>50.76000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>14.28571428571434</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L35" t="n">
         <v>50.79</v>
@@ -2064,7 +2086,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K36" t="n">
-        <v>2.702702702702755</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L36" t="n">
         <v>50.79</v>
@@ -2115,7 +2137,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>-2.857142857142915</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L37" t="n">
         <v>50.77</v>
@@ -2166,7 +2188,7 @@
         <v>6.599999999999994</v>
       </c>
       <c r="K38" t="n">
-        <v>2.702702702702755</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L38" t="n">
         <v>50.81</v>
@@ -2217,7 +2239,7 @@
         <v>6.79999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.564102564102433</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L39" t="n">
         <v>50.8</v>
@@ -2268,7 +2290,7 @@
         <v>6.899999999999991</v>
       </c>
       <c r="K40" t="n">
-        <v>5.555555555555665</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L40" t="n">
         <v>50.78</v>
@@ -2319,7 +2341,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.50000000000003</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>50.73999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.666666666666793</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>50.7</v>
@@ -2421,7 +2443,7 @@
         <v>7.499999999999993</v>
       </c>
       <c r="K43" t="n">
-        <v>-15.15151515151523</v>
+        <v>-50</v>
       </c>
       <c r="L43" t="n">
         <v>50.61</v>
@@ -2472,7 +2494,7 @@
         <v>7.599999999999994</v>
       </c>
       <c r="K44" t="n">
-        <v>-33.33333333333349</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L44" t="n">
         <v>50.52</v>
@@ -2523,7 +2545,7 @@
         <v>8.199999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>-39.39393939393964</v>
+        <v>-68.42105263157923</v>
       </c>
       <c r="L45" t="n">
         <v>50.36</v>
@@ -2574,7 +2596,7 @@
         <v>8.399999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-31.42857142857153</v>
+        <v>-52.38095238095242</v>
       </c>
       <c r="L46" t="n">
         <v>50.25</v>
@@ -2625,7 +2647,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-50</v>
+        <v>-83.99999999999982</v>
       </c>
       <c r="L47" t="n">
         <v>50.06999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>-45.94594594594599</v>
+        <v>-82.60869565217375</v>
       </c>
       <c r="L48" t="n">
         <v>49.85999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>9.400000000000006</v>
       </c>
       <c r="K49" t="n">
-        <v>-45.94594594594571</v>
+        <v>-59.99999999999965</v>
       </c>
       <c r="L49" t="n">
         <v>49.7</v>
@@ -2778,7 +2800,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K50" t="n">
-        <v>-47.36842105263136</v>
+        <v>-59.99999999999965</v>
       </c>
       <c r="L50" t="n">
         <v>49.54</v>
@@ -2829,7 +2851,7 @@
         <v>9.500000000000007</v>
       </c>
       <c r="K51" t="n">
-        <v>-51.35135135135117</v>
+        <v>-59.99999999999965</v>
       </c>
       <c r="L51" t="n">
         <v>49.39</v>
@@ -2880,7 +2902,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K52" t="n">
-        <v>-47.36842105263136</v>
+        <v>-42.85714285714247</v>
       </c>
       <c r="L52" t="n">
         <v>49.25</v>
@@ -2931,7 +2953,7 @@
         <v>9.800000000000011</v>
       </c>
       <c r="K53" t="n">
-        <v>-49.99999999999982</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L53" t="n">
         <v>49.14</v>
@@ -2982,7 +3004,7 @@
         <v>9.900000000000013</v>
       </c>
       <c r="K54" t="n">
-        <v>-49.99999999999982</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L54" t="n">
         <v>49.02999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>-46.34146341463394</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L55" t="n">
         <v>48.99999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>-43.58974358974344</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L56" t="n">
         <v>48.94</v>
@@ -3135,7 +3157,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>-43.58974358974344</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L57" t="n">
         <v>48.95</v>
@@ -3186,7 +3208,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>-55.5555555555552</v>
+        <v>-25</v>
       </c>
       <c r="L58" t="n">
         <v>48.95999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>-56.75675675675642</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L59" t="n">
         <v>48.90999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-39.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>48.90999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>-38.46153846153826</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L61" t="n">
         <v>48.90999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>-38.46153846153826</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L62" t="n">
         <v>48.89999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>-38.46153846153826</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L63" t="n">
         <v>48.85999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>-42.85714285714262</v>
+        <v>-52.94117647058828</v>
       </c>
       <c r="L64" t="n">
         <v>48.78999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-26.31578947368413</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L65" t="n">
         <v>48.71999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>-39.99999999999996</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L66" t="n">
         <v>48.61999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-27.27272727272719</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L67" t="n">
         <v>48.52</v>
@@ -3696,7 +3718,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-27.27272727272719</v>
+        <v>-36.84210526315821</v>
       </c>
       <c r="L68" t="n">
         <v>48.41999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>-40.0000000000001</v>
+        <v>-73.33333333333377</v>
       </c>
       <c r="L69" t="n">
         <v>48.34999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>12.60000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>-29.03225806451607</v>
+        <v>-52.94117647058828</v>
       </c>
       <c r="L70" t="n">
         <v>48.25999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>12.60000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>-29.03225806451607</v>
+        <v>-52.94117647058828</v>
       </c>
       <c r="L71" t="n">
         <v>48.16999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>-35.48387096774196</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L72" t="n">
         <v>48.06999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>-26.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>48.02999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>13.10000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>-12.49999999999997</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L74" t="n">
         <v>48.05999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-29.41176470588243</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L75" t="n">
         <v>48.02999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>-29.41176470588243</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>48.02999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>-25.71428571428573</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L77" t="n">
         <v>48.04</v>
@@ -4206,7 +4228,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>-25.71428571428573</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L78" t="n">
         <v>48.05</v>
@@ -4257,7 +4279,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>-2.702702702702744</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L79" t="n">
         <v>48.11</v>
@@ -4308,7 +4330,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-17.64705882352946</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L80" t="n">
         <v>48.14</v>
@@ -4359,7 +4381,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-14.28571428571428</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L81" t="n">
         <v>48.17999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.11111111111107</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L82" t="n">
         <v>48.23999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>14.70000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.03030303030307</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>48.27</v>
@@ -4512,7 +4534,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>16.12903225806447</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L84" t="n">
         <v>48.29</v>
@@ -4563,7 +4585,7 @@
         <v>15.30000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>21.21212121212123</v>
+        <v>64.70588235294088</v>
       </c>
       <c r="L85" t="n">
         <v>48.39</v>
@@ -4614,7 +4636,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>33.33333333333318</v>
+        <v>52.94117647058785</v>
       </c>
       <c r="L86" t="n">
         <v>48.48999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>35.4838709677418</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L87" t="n">
         <v>48.59</v>
@@ -4716,7 +4738,7 @@
         <v>15.60000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>31.24999999999983</v>
+        <v>28.57142857142821</v>
       </c>
       <c r="L88" t="n">
         <v>48.67999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>33.33333333333319</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L89" t="n">
         <v>48.73</v>
@@ -4818,7 +4840,7 @@
         <v>16.50000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>43.58974358974334</v>
+        <v>61.90476190476152</v>
       </c>
       <c r="L90" t="n">
         <v>48.86999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>39.99999999999996</v>
+        <v>52.38095238095242</v>
       </c>
       <c r="L91" t="n">
         <v>48.98999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>39.99999999999996</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L92" t="n">
         <v>49.09</v>
@@ -4971,7 +4993,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>38.46153846153841</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L93" t="n">
         <v>49.21</v>
@@ -5022,7 +5044,7 @@
         <v>17.00000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>38.46153846153841</v>
+        <v>52.94117647058828</v>
       </c>
       <c r="L94" t="n">
         <v>49.34</v>
@@ -5073,7 +5095,7 @@
         <v>17.10000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>55.55555555555542</v>
+        <v>64.70588235294143</v>
       </c>
       <c r="L95" t="n">
         <v>49.44</v>
@@ -5124,7 +5146,7 @@
         <v>17.30000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>62.16216216216212</v>
+        <v>66.66666666666693</v>
       </c>
       <c r="L96" t="n">
         <v>49.57000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>63.157894736842</v>
+        <v>78.94736842105299</v>
       </c>
       <c r="L97" t="n">
         <v>49.71</v>
@@ -5226,7 +5248,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>47.61904761904759</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L98" t="n">
         <v>49.82000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>40.54054054054051</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L99" t="n">
         <v>49.92</v>
@@ -5328,7 +5350,7 @@
         <v>18.10000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>47.36842105263164</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>49.96000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>18.50000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>31.7073170731706</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L101" t="n">
         <v>49.97000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>18.80000000000003</v>
       </c>
       <c r="K102" t="n">
-        <v>34.88372093023246</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L102" t="n">
         <v>50.02</v>
@@ -5481,7 +5503,7 @@
         <v>19.40000000000003</v>
       </c>
       <c r="K103" t="n">
-        <v>23.40425531914892</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L103" t="n">
         <v>50.01000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K104" t="n">
-        <v>17.39130434782599</v>
+        <v>-24.99999999999993</v>
       </c>
       <c r="L104" t="n">
         <v>49.96</v>
@@ -5583,7 +5605,7 @@
         <v>19.80000000000003</v>
       </c>
       <c r="K105" t="n">
-        <v>2.22222222222225</v>
+        <v>-43.99999999999994</v>
       </c>
       <c r="L105" t="n">
         <v>49.87</v>
@@ -5634,7 +5656,7 @@
         <v>19.80000000000003</v>
       </c>
       <c r="K106" t="n">
-        <v>4.545454545454604</v>
+        <v>-56.52173913043438</v>
       </c>
       <c r="L106" t="n">
         <v>49.76000000000001</v>
@@ -5685,7 +5707,7 @@
         <v>19.90000000000003</v>
       </c>
       <c r="K107" t="n">
-        <v>4.545454545454604</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L107" t="n">
         <v>49.64000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>20.20000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>13.04347826086959</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L108" t="n">
         <v>49.59000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>20.60000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>18.36734693877549</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L109" t="n">
         <v>49.58000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>-6.666666666666604</v>
+        <v>-11.99999999999989</v>
       </c>
       <c r="L110" t="n">
         <v>49.51000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>-4.545454545454604</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L111" t="n">
         <v>49.48000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>-2.325581395348868</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>49.42000000000002</v>
@@ -5991,7 +6013,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.666666666666751</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L113" t="n">
         <v>49.40000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>21.30000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>-16.27906976744174</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L114" t="n">
         <v>49.38000000000002</v>
@@ -6093,7 +6115,7 @@
         <v>21.50000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-22.7272727272727</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L115" t="n">
         <v>49.37000000000002</v>
@@ -6144,7 +6166,7 @@
         <v>21.50000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>-28.57142857142862</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L116" t="n">
         <v>49.36000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>21.60000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>-36.58536585365846</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L117" t="n">
         <v>49.33000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>21.70000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>-26.31578947368413</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L118" t="n">
         <v>49.28000000000002</v>
@@ -6297,7 +6319,7 @@
         <v>22.30000000000003</v>
       </c>
       <c r="K119" t="n">
-        <v>-36.3636363636363</v>
+        <v>-84.61538461538444</v>
       </c>
       <c r="L119" t="n">
         <v>49.13000000000002</v>
@@ -6348,7 +6370,7 @@
         <v>22.70000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-30.43478260869572</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L120" t="n">
         <v>49.06000000000002</v>
@@ -6399,7 +6421,7 @@
         <v>22.80000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>-25.58139534883709</v>
+        <v>-44.44444444444436</v>
       </c>
       <c r="L121" t="n">
         <v>48.98000000000002</v>
@@ -6450,7 +6472,7 @@
         <v>22.90000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>-36.58536585365859</v>
+        <v>-41.17647058823515</v>
       </c>
       <c r="L122" t="n">
         <v>48.89000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>23.40000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>-35.00000000000003</v>
+        <v>-52.38095238095242</v>
       </c>
       <c r="L123" t="n">
         <v>48.77000000000002</v>
@@ -6552,7 +6574,7 @@
         <v>23.60000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>-26.82926829268305</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L124" t="n">
         <v>48.68000000000002</v>
@@ -6603,7 +6625,7 @@
         <v>23.90000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>-12.19512195121953</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L125" t="n">
         <v>48.64000000000002</v>
@@ -6654,7 +6676,7 @@
         <v>24.00000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>-14.28571428571433</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L126" t="n">
         <v>48.59000000000002</v>
@@ -6705,7 +6727,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>-14.28571428571433</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L127" t="n">
         <v>48.56000000000002</v>
@@ -6756,7 +6778,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-23.07692307692305</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L128" t="n">
         <v>48.52000000000002</v>
@@ -6807,7 +6829,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>-37.14285714285706</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L129" t="n">
         <v>48.54000000000003</v>
@@ -6858,7 +6880,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>-29.03225806451607</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L130" t="n">
         <v>48.52000000000003</v>
@@ -6909,7 +6931,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>-29.03225806451607</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>48.51000000000003</v>
@@ -6960,7 +6982,7 @@
         <v>24.30000000000003</v>
       </c>
       <c r="K132" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L132" t="n">
         <v>48.49000000000003</v>
@@ -7011,7 +7033,7 @@
         <v>24.40000000000003</v>
       </c>
       <c r="K133" t="n">
-        <v>-24.99999999999989</v>
+        <v>25</v>
       </c>
       <c r="L133" t="n">
         <v>48.53000000000003</v>
@@ -7062,7 +7084,7 @@
         <v>24.50000000000003</v>
       </c>
       <c r="K134" t="n">
-        <v>-25.00000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>48.54000000000003</v>
@@ -7113,7 +7135,7 @@
         <v>24.70000000000003</v>
       </c>
       <c r="K135" t="n">
-        <v>-12.49999999999992</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>48.54000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>24.70000000000003</v>
       </c>
       <c r="K136" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>48.55000000000003</v>
@@ -7215,7 +7237,7 @@
         <v>24.80000000000003</v>
       </c>
       <c r="K137" t="n">
-        <v>-6.249999999999847</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>48.56000000000002</v>
@@ -7266,7 +7288,7 @@
         <v>24.90000000000003</v>
       </c>
       <c r="K138" t="n">
-        <v>-6.250000000000083</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L138" t="n">
         <v>48.58000000000002</v>
@@ -7317,7 +7339,7 @@
         <v>25.30000000000003</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L139" t="n">
         <v>48.56000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>25.50000000000003</v>
       </c>
       <c r="K140" t="n">
-        <v>-7.14285714285698</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>48.56000000000002</v>
@@ -7419,7 +7441,7 @@
         <v>25.60000000000003</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L141" t="n">
         <v>48.57000000000001</v>
@@ -7470,7 +7492,7 @@
         <v>25.70000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>7.14285714285698</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L142" t="n">
         <v>48.61000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>25.90000000000003</v>
       </c>
       <c r="K143" t="n">
-        <v>35.99999999999984</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L143" t="n">
         <v>48.66000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>26.00000000000003</v>
       </c>
       <c r="K144" t="n">
-        <v>33.33333333333333</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L144" t="n">
         <v>48.73000000000002</v>
@@ -7623,7 +7645,7 @@
         <v>26.00000000000003</v>
       </c>
       <c r="K145" t="n">
-        <v>23.80952380952371</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L145" t="n">
         <v>48.78000000000002</v>
@@ -7674,7 +7696,7 @@
         <v>26.00000000000003</v>
       </c>
       <c r="K146" t="n">
-        <v>29.99999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>48.83000000000002</v>
@@ -7725,7 +7747,7 @@
         <v>26.30000000000003</v>
       </c>
       <c r="K147" t="n">
-        <v>36.36363636363619</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L147" t="n">
         <v>48.90000000000002</v>
@@ -7776,7 +7798,7 @@
         <v>26.40000000000003</v>
       </c>
       <c r="K148" t="n">
-        <v>39.13043478260856</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>48.97000000000002</v>
@@ -7827,7 +7849,7 @@
         <v>26.40000000000003</v>
       </c>
       <c r="K149" t="n">
-        <v>39.13043478260856</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>49.08000000000003</v>
@@ -7878,7 +7900,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>46.15384615384596</v>
+        <v>100</v>
       </c>
       <c r="L150" t="n">
         <v>49.20000000000002</v>
@@ -7929,7 +7951,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K151" t="n">
-        <v>48.14814814814799</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>49.32000000000002</v>
@@ -7980,7 +8002,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>48.14814814814839</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L152" t="n">
         <v>49.41000000000002</v>
@@ -8031,7 +8053,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K153" t="n">
-        <v>46.15384615384636</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L153" t="n">
         <v>49.48000000000002</v>
@@ -8082,7 +8104,7 @@
         <v>27.10000000000002</v>
       </c>
       <c r="K154" t="n">
-        <v>46.15384615384636</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L154" t="n">
         <v>49.53000000000002</v>
@@ -8133,7 +8155,7 @@
         <v>27.10000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>41.66666666666681</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L155" t="n">
         <v>49.58000000000002</v>
@@ -8184,7 +8206,7 @@
         <v>27.10000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>41.66666666666681</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L156" t="n">
         <v>49.63000000000002</v>
@@ -8235,7 +8257,7 @@
         <v>27.10000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>39.1304347826088</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L157" t="n">
         <v>49.65000000000002</v>
@@ -8286,7 +8308,7 @@
         <v>27.30000000000003</v>
       </c>
       <c r="K158" t="n">
-        <v>25.00000000000007</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L158" t="n">
         <v>49.64000000000002</v>
@@ -8337,7 +8359,7 @@
         <v>27.40000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>42.85714285714276</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L159" t="n">
         <v>49.62000000000002</v>
@@ -8388,7 +8410,7 @@
         <v>27.50000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>39.99999999999986</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L160" t="n">
         <v>49.58000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>27.60000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>29.99999999999972</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L161" t="n">
         <v>49.52000000000002</v>
@@ -8490,7 +8512,7 @@
         <v>27.60000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>26.31578947368413</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L162" t="n">
         <v>49.48000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>27.60000000000003</v>
       </c>
       <c r="K163" t="n">
-        <v>17.64705882352921</v>
+        <v>-60</v>
       </c>
       <c r="L163" t="n">
         <v>49.44000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>27.60000000000003</v>
       </c>
       <c r="K164" t="n">
-        <v>12.49999999999972</v>
+        <v>-60</v>
       </c>
       <c r="L164" t="n">
         <v>49.41000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>27.70000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>5.882352941176569</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L165" t="n">
         <v>49.37000000000002</v>
@@ -8694,7 +8716,7 @@
         <v>27.70000000000002</v>
       </c>
       <c r="K166" t="n">
-        <v>5.882352941176569</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L166" t="n">
         <v>49.33000000000002</v>
@@ -8745,7 +8767,7 @@
         <v>27.70000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>-14.285714285714</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L167" t="n">
         <v>49.29000000000002</v>
@@ -8796,7 +8818,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>49.28000000000002</v>
@@ -8847,7 +8869,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>-14.28571428571458</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L169" t="n">
         <v>49.28000000000002</v>
@@ -8898,7 +8920,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>49.26000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>-63.63636363636399</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L171" t="n">
         <v>49.25000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>-55.55555555555608</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>49.24000000000002</v>
@@ -9051,7 +9073,7 @@
         <v>27.90000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>-55.55555555555608</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>49.23000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>28.10000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>-20.00000000000057</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L174" t="n">
         <v>49.24000000000002</v>
@@ -9153,7 +9175,7 @@
         <v>28.10000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>-20.00000000000057</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L175" t="n">
         <v>49.26000000000002</v>
@@ -9204,7 +9226,7 @@
         <v>28.50000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>-42.85714285714344</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L176" t="n">
         <v>49.24000000000002</v>
@@ -9255,7 +9277,7 @@
         <v>28.50000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>-42.85714285714344</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L177" t="n">
         <v>49.22000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>28.70000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>-42.85714285714344</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L178" t="n">
         <v>49.17000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>28.80000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>-28.57142857142879</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L179" t="n">
         <v>49.13000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>-28.57142857142879</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L180" t="n">
         <v>49.11000000000002</v>
@@ -9459,7 +9481,7 @@
         <v>28.90000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>-23.07692307692316</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L181" t="n">
         <v>49.09000000000002</v>
@@ -9510,7 +9532,7 @@
         <v>29.00000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>-14.28571428571414</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L182" t="n">
         <v>49.08000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>-25.00000000000011</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L183" t="n">
         <v>49.05000000000002</v>
@@ -9612,7 +9634,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K184" t="n">
-        <v>-25.00000000000011</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L184" t="n">
         <v>49.00000000000002</v>
@@ -9663,7 +9685,7 @@
         <v>29.30000000000002</v>
       </c>
       <c r="K185" t="n">
-        <v>-25.00000000000044</v>
+        <v>-25</v>
       </c>
       <c r="L185" t="n">
         <v>48.94000000000002</v>
@@ -9714,7 +9736,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>-29.41176470588255</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L186" t="n">
         <v>48.91000000000003</v>
@@ -9765,7 +9787,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>-29.41176470588255</v>
+        <v>-14.28571428571342</v>
       </c>
       <c r="L187" t="n">
         <v>48.88000000000003</v>
@@ -9816,7 +9838,7 @@
         <v>29.50000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>-29.41176470588255</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L188" t="n">
         <v>48.88000000000002</v>
@@ -9867,7 +9889,7 @@
         <v>29.7</v>
       </c>
       <c r="K189" t="n">
-        <v>-36.84210526315798</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L189" t="n">
         <v>48.85000000000002</v>
@@ -9918,7 +9940,7 @@
         <v>29.8</v>
       </c>
       <c r="K190" t="n">
-        <v>-26.31578947368433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>48.82000000000003</v>
@@ -9969,7 +9991,7 @@
         <v>29.90000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-30.00000000000018</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L191" t="n">
         <v>48.78000000000003</v>
@@ -10020,7 +10042,7 @@
         <v>30.00000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>-33.33333333333356</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L192" t="n">
         <v>48.72000000000003</v>
@@ -10071,7 +10093,7 @@
         <v>30.00000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>-33.33333333333356</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L193" t="n">
         <v>48.68000000000003</v>
@@ -10122,7 +10144,7 @@
         <v>30.10000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>-50</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L194" t="n">
         <v>48.63000000000003</v>
@@ -10173,7 +10195,7 @@
         <v>30.10000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>-50</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L195" t="n">
         <v>48.59000000000002</v>
@@ -10224,7 +10246,7 @@
         <v>30.20000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>-29.41176470588231</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L196" t="n">
         <v>48.57000000000004</v>
@@ -10275,7 +10297,7 @@
         <v>30.20000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>-29.41176470588231</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L197" t="n">
         <v>48.55000000000003</v>
@@ -10326,7 +10348,7 @@
         <v>30.60000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>5.263157894736921</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L198" t="n">
         <v>48.56000000000003</v>
@@ -10377,7 +10399,7 @@
         <v>30.8</v>
       </c>
       <c r="K199" t="n">
-        <v>-9.999999999999822</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>48.57000000000003</v>
@@ -10428,7 +10450,7 @@
         <v>31.10000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>-27.27272727272739</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L200" t="n">
         <v>48.54000000000003</v>
@@ -10479,7 +10501,7 @@
         <v>31.30000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>-16.66666666666662</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L201" t="n">
         <v>48.54000000000002</v>
@@ -10530,7 +10552,7 @@
         <v>31.60000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>-7.692307692307819</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L202" t="n">
         <v>48.58000000000002</v>
@@ -10581,7 +10603,7 @@
         <v>31.60000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>48.62000000000002</v>
@@ -10632,7 +10654,7 @@
         <v>31.70000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>4.000000000000068</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L204" t="n">
         <v>48.68000000000002</v>
@@ -10683,7 +10705,7 @@
         <v>31.70000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>8.333333333333481</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>48.74000000000002</v>
@@ -10734,7 +10756,7 @@
         <v>31.80000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>8.333333333333162</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L206" t="n">
         <v>48.78000000000002</v>
@@ -10785,7 +10807,7 @@
         <v>31.80000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>8.333333333333162</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>48.82000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>31.90000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>8.333333333333432</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L208" t="n">
         <v>48.83000000000002</v>
@@ -10887,7 +10909,7 @@
         <v>32.00000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>13.04347826086938</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L209" t="n">
         <v>48.85000000000002</v>
@@ -10938,7 +10960,7 @@
         <v>32.00000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>9.090909090908857</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L210" t="n">
         <v>48.90000000000002</v>
@@ -10989,7 +11011,7 @@
         <v>32.20000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>4.347826086956576</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L211" t="n">
         <v>48.91000000000003</v>
@@ -11040,7 +11062,7 @@
         <v>32.30000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>4.347826086956576</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L212" t="n">
         <v>48.88000000000003</v>
@@ -11091,7 +11113,7 @@
         <v>32.50000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-4.000000000000045</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L213" t="n">
         <v>48.83000000000003</v>
@@ -11142,7 +11164,7 @@
         <v>32.80000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-11.11111111111099</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L214" t="n">
         <v>48.74000000000003</v>
@@ -11193,7 +11215,7 @@
         <v>33.20000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>3.225806451612947</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L215" t="n">
         <v>48.69000000000003</v>
@@ -11244,7 +11266,7 @@
         <v>33.50000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>-9.090909090909012</v>
+        <v>-41.17647058823515</v>
       </c>
       <c r="L216" t="n">
         <v>48.62000000000004</v>
@@ -11295,7 +11317,7 @@
         <v>33.7</v>
       </c>
       <c r="K217" t="n">
-        <v>-2.857142857142903</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L217" t="n">
         <v>48.57000000000004</v>
@@ -11346,7 +11368,7 @@
         <v>33.7</v>
       </c>
       <c r="K218" t="n">
-        <v>-16.12903225806455</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L218" t="n">
         <v>48.51000000000003</v>
@@ -11397,7 +11419,7 @@
         <v>33.9</v>
       </c>
       <c r="K219" t="n">
-        <v>-16.12903225806455</v>
+        <v>-36.84210526315798</v>
       </c>
       <c r="L219" t="n">
         <v>48.44000000000004</v>
@@ -11448,7 +11470,7 @@
         <v>33.99999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>-3.448275862069033</v>
+        <v>-22.22222222222275</v>
       </c>
       <c r="L220" t="n">
         <v>48.38000000000004</v>
@@ -11499,7 +11521,7 @@
         <v>33.99999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.11111111111135</v>
+        <v>-17.64705882352985</v>
       </c>
       <c r="L221" t="n">
         <v>48.34000000000004</v>
@@ -11550,7 +11572,7 @@
         <v>34.09999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>-28.00000000000007</v>
+        <v>-12.49999999999994</v>
       </c>
       <c r="L222" t="n">
         <v>48.30000000000003</v>
@@ -11601,7 +11623,7 @@
         <v>34.09999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>-28.00000000000007</v>
+        <v>7.692307692307944</v>
       </c>
       <c r="L223" t="n">
         <v>48.28000000000004</v>
@@ -11652,7 +11674,7 @@
         <v>34.19999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>-28.00000000000043</v>
+        <v>-20.00000000000085</v>
       </c>
       <c r="L224" t="n">
         <v>48.30000000000003</v>
@@ -11703,7 +11725,7 @@
         <v>34.39999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>-33.33333333333368</v>
+        <v>-11.11111111111164</v>
       </c>
       <c r="L225" t="n">
         <v>48.26000000000003</v>
@@ -11754,7 +11776,7 @@
         <v>34.69999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>-37.93103448275906</v>
+        <v>-60.00000000000142</v>
       </c>
       <c r="L226" t="n">
         <v>48.22000000000003</v>
@@ -11805,7 +11827,7 @@
         <v>34.79999999999998</v>
       </c>
       <c r="K227" t="n">
-        <v>-33.33333333333365</v>
+        <v>-45.45454545454628</v>
       </c>
       <c r="L227" t="n">
         <v>48.17000000000004</v>
@@ -11856,7 +11878,7 @@
         <v>35.09999999999999</v>
       </c>
       <c r="K228" t="n">
-        <v>-25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>48.15000000000005</v>
@@ -11907,7 +11929,7 @@
         <v>35.19999999999999</v>
       </c>
       <c r="K229" t="n">
-        <v>-25.00000000000011</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L229" t="n">
         <v>48.14000000000005</v>
@@ -11958,7 +11980,7 @@
         <v>35.49999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>-31.42857142857166</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L230" t="n">
         <v>48.09000000000005</v>
@@ -12009,7 +12031,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K231" t="n">
-        <v>-23.52941176470611</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L231" t="n">
         <v>48.05000000000005</v>
@@ -12060,7 +12082,7 @@
         <v>35.7</v>
       </c>
       <c r="K232" t="n">
-        <v>-17.64705882352953</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L232" t="n">
         <v>48.03000000000004</v>
@@ -12111,7 +12133,7 @@
         <v>35.8</v>
       </c>
       <c r="K233" t="n">
-        <v>-9.090909090909053</v>
+        <v>-12.49999999999961</v>
       </c>
       <c r="L233" t="n">
         <v>48.02000000000005</v>
@@ -12162,7 +12184,7 @@
         <v>35.9</v>
       </c>
       <c r="K234" t="n">
-        <v>-3.225806451612962</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L234" t="n">
         <v>47.99000000000005</v>
@@ -12213,7 +12235,7 @@
         <v>35.9</v>
       </c>
       <c r="K235" t="n">
-        <v>-18.51851851851859</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L235" t="n">
         <v>47.98000000000005</v>
@@ -12264,7 +12286,7 @@
         <v>35.9</v>
       </c>
       <c r="K236" t="n">
-        <v>-8.333333333333481</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L236" t="n">
         <v>48.00000000000005</v>
@@ -12315,7 +12337,7 @@
         <v>36.2</v>
       </c>
       <c r="K237" t="n">
-        <v>-27.99999999999991</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L237" t="n">
         <v>47.98000000000005</v>
@@ -12366,7 +12388,7 @@
         <v>36.29999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>-23.07692307692324</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L238" t="n">
         <v>47.94000000000005</v>
@@ -12417,7 +12439,7 @@
         <v>36.39999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>-12.0000000000002</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L239" t="n">
         <v>47.92000000000005</v>
@@ -12468,7 +12490,7 @@
         <v>36.59999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>-23.07692307692291</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L240" t="n">
         <v>47.91000000000005</v>
@@ -12519,7 +12541,7 @@
         <v>36.79999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L241" t="n">
         <v>47.91000000000006</v>
@@ -12570,7 +12592,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>-14.2857142857145</v>
+        <v>-27.27272727272798</v>
       </c>
       <c r="L242" t="n">
         <v>47.89000000000006</v>
@@ -12621,7 +12643,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>-14.2857142857145</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L243" t="n">
         <v>47.86000000000005</v>
@@ -12672,7 +12694,7 @@
         <v>36.99999999999999</v>
       </c>
       <c r="K244" t="n">
-        <v>-14.28571428571421</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L244" t="n">
         <v>47.85000000000004</v>
@@ -12723,7 +12745,7 @@
         <v>37.09999999999999</v>
       </c>
       <c r="K245" t="n">
-        <v>-3.703703703703742</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>47.85000000000004</v>
@@ -12774,7 +12796,7 @@
         <v>37.09999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>8.333333333333432</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>47.85000000000004</v>
@@ -12825,7 +12847,7 @@
         <v>37.09999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>4.347826086956576</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L247" t="n">
         <v>47.88000000000005</v>
@@ -12876,7 +12898,7 @@
         <v>37.29999999999999</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L248" t="n">
         <v>47.92000000000004</v>
@@ -12927,7 +12949,7 @@
         <v>37.29999999999999</v>
       </c>
       <c r="K249" t="n">
-        <v>4.761904761904826</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L249" t="n">
         <v>47.95000000000005</v>
@@ -12978,7 +13000,7 @@
         <v>37.49999999999999</v>
       </c>
       <c r="K250" t="n">
-        <v>10.00000000000014</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L250" t="n">
         <v>47.98000000000005</v>
@@ -13029,7 +13051,7 @@
         <v>37.59999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>10.00000000000014</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L251" t="n">
         <v>48.00000000000004</v>
@@ -13080,7 +13102,7 @@
         <v>37.7</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L252" t="n">
         <v>48.02000000000005</v>
@@ -13131,7 +13153,7 @@
         <v>37.8</v>
       </c>
       <c r="K253" t="n">
-        <v>-10.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>48.03000000000004</v>
@@ -13182,7 +13204,7 @@
         <v>37.8</v>
       </c>
       <c r="K254" t="n">
-        <v>-5.263157894736921</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L254" t="n">
         <v>48.03000000000005</v>
@@ -13335,7 +13357,7 @@
         <v>37.9</v>
       </c>
       <c r="K257" t="n">
-        <v>17.64705882352921</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>48.03000000000005</v>
@@ -13386,7 +13408,7 @@
         <v>38</v>
       </c>
       <c r="K258" t="n">
-        <v>5.88235294117652</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L258" t="n">
         <v>48.00000000000005</v>
@@ -13437,7 +13459,7 @@
         <v>38.1</v>
       </c>
       <c r="K259" t="n">
-        <v>5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>47.98000000000005</v>
@@ -13488,7 +13510,7 @@
         <v>38.1</v>
       </c>
       <c r="K260" t="n">
-        <v>19.99999999999962</v>
+        <v>-20</v>
       </c>
       <c r="L260" t="n">
         <v>47.98000000000004</v>
@@ -13539,7 +13561,7 @@
         <v>38.1</v>
       </c>
       <c r="K261" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>47.97000000000004</v>
@@ -13590,7 +13612,7 @@
         <v>38.2</v>
       </c>
       <c r="K262" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>47.96000000000004</v>
@@ -13641,7 +13663,7 @@
         <v>38.2</v>
       </c>
       <c r="K263" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>47.96000000000004</v>
@@ -13692,7 +13714,7 @@
         <v>38.3</v>
       </c>
       <c r="K264" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>47.97000000000004</v>
@@ -13794,7 +13816,7 @@
         <v>38.40000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L266" t="n">
         <v>47.98000000000004</v>
@@ -13845,7 +13867,7 @@
         <v>38.50000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L267" t="n">
         <v>48.00000000000004</v>
@@ -13896,7 +13918,7 @@
         <v>38.50000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L268" t="n">
         <v>48.03000000000005</v>
@@ -13947,7 +13969,7 @@
         <v>38.50000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L269" t="n">
         <v>48.05000000000005</v>
@@ -13998,7 +14020,7 @@
         <v>38.50000000000001</v>
       </c>
       <c r="K270" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L270" t="n">
         <v>48.07000000000006</v>
@@ -14049,7 +14071,7 @@
         <v>38.50000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L271" t="n">
         <v>48.09000000000007</v>
@@ -14100,7 +14122,7 @@
         <v>38.6</v>
       </c>
       <c r="K272" t="n">
-        <v>33.33333333333281</v>
+        <v>100</v>
       </c>
       <c r="L272" t="n">
         <v>48.13000000000007</v>
@@ -14151,7 +14173,7 @@
         <v>38.6</v>
       </c>
       <c r="K273" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L273" t="n">
         <v>48.17000000000006</v>
@@ -14202,7 +14224,7 @@
         <v>38.7</v>
       </c>
       <c r="K274" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L274" t="n">
         <v>48.21000000000006</v>
@@ -14253,7 +14275,7 @@
         <v>38.7</v>
       </c>
       <c r="K275" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L275" t="n">
         <v>48.25000000000006</v>
@@ -14304,7 +14326,7 @@
         <v>38.90000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>59.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L276" t="n">
         <v>48.30000000000005</v>
@@ -14355,7 +14377,7 @@
         <v>39.00000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>45.45454545454511</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L277" t="n">
         <v>48.33000000000006</v>
@@ -14406,7 +14428,7 @@
         <v>39.10000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>45.45454545454511</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L278" t="n">
         <v>48.35000000000007</v>
@@ -14457,7 +14479,7 @@
         <v>39.3</v>
       </c>
       <c r="K279" t="n">
-        <v>16.66666666666686</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>48.35000000000007</v>
@@ -14508,7 +14530,7 @@
         <v>39.5</v>
       </c>
       <c r="K280" t="n">
-        <v>28.5714285714285</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L280" t="n">
         <v>48.37000000000007</v>
@@ -14559,7 +14581,7 @@
         <v>39.6</v>
       </c>
       <c r="K281" t="n">
-        <v>19.99999999999981</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>48.38000000000007</v>
@@ -14610,7 +14632,7 @@
         <v>39.9</v>
       </c>
       <c r="K282" t="n">
-        <v>5.882352941176569</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L282" t="n">
         <v>48.35000000000007</v>
@@ -14661,7 +14683,7 @@
         <v>40.2</v>
       </c>
       <c r="K283" t="n">
-        <v>20</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L283" t="n">
         <v>48.35000000000007</v>
@@ -14712,7 +14734,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K284" t="n">
-        <v>4.761904761904859</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L284" t="n">
         <v>48.32000000000006</v>
@@ -14763,7 +14785,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>4.761904761904859</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L285" t="n">
         <v>48.29000000000006</v>
@@ -14814,7 +14836,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>-28.57142857142879</v>
       </c>
       <c r="L286" t="n">
         <v>48.24000000000007</v>
@@ -14865,7 +14887,7 @@
         <v>40.39999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>-5.263157894736961</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L287" t="n">
         <v>48.20000000000007</v>
@@ -14967,7 +14989,7 @@
         <v>40.7</v>
       </c>
       <c r="K289" t="n">
-        <v>-9.090909090909268</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>48.16000000000007</v>
@@ -15018,7 +15040,7 @@
         <v>40.7</v>
       </c>
       <c r="K290" t="n">
-        <v>-9.090909090909268</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L290" t="n">
         <v>48.12000000000008</v>
@@ -15069,7 +15091,7 @@
         <v>40.7</v>
       </c>
       <c r="K291" t="n">
-        <v>-9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>48.09000000000008</v>
@@ -15120,7 +15142,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>-24.99999999999985</v>
+        <v>-74.99999999999956</v>
       </c>
       <c r="L292" t="n">
         <v>48.06000000000008</v>
@@ -15171,7 +15193,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>-24.99999999999985</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L293" t="n">
         <v>48.00000000000009</v>
@@ -15222,7 +15244,7 @@
         <v>41.19999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>-20.00000000000011</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L294" t="n">
         <v>47.98000000000009</v>
@@ -15273,7 +15295,7 @@
         <v>41.39999999999998</v>
       </c>
       <c r="K295" t="n">
-        <v>-25.92592592592595</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L295" t="n">
         <v>47.94000000000009</v>
@@ -15324,7 +15346,7 @@
         <v>41.59999999999998</v>
       </c>
       <c r="K296" t="n">
-        <v>-25.92592592592628</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L296" t="n">
         <v>47.92000000000009</v>
@@ -15375,7 +15397,7 @@
         <v>41.59999999999998</v>
       </c>
       <c r="K297" t="n">
-        <v>-23.07692307692337</v>
+        <v>-27.27272727272798</v>
       </c>
       <c r="L297" t="n">
         <v>47.90000000000008</v>
@@ -15426,7 +15448,7 @@
         <v>41.59999999999998</v>
       </c>
       <c r="K298" t="n">
-        <v>-20.00000000000023</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L298" t="n">
         <v>47.87000000000008</v>
@@ -15477,7 +15499,7 @@
         <v>41.59999999999998</v>
       </c>
       <c r="K299" t="n">
-        <v>-13.04347826086989</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L299" t="n">
         <v>47.86000000000008</v>
@@ -15528,7 +15550,7 @@
         <v>41.59999999999998</v>
       </c>
       <c r="K300" t="n">
-        <v>-23.80952380952404</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L300" t="n">
         <v>47.85000000000008</v>
@@ -15579,7 +15601,7 @@
         <v>41.69999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L301" t="n">
         <v>47.85000000000008</v>
@@ -15630,7 +15652,7 @@
         <v>41.79999999999998</v>
       </c>
       <c r="K302" t="n">
-        <v>-5.263157894736961</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L302" t="n">
         <v>47.87000000000008</v>
@@ -15681,7 +15703,7 @@
         <v>41.89999999999998</v>
       </c>
       <c r="K303" t="n">
-        <v>-17.64705882352936</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L303" t="n">
         <v>47.90000000000008</v>
@@ -15732,7 +15754,7 @@
         <v>41.89999999999998</v>
       </c>
       <c r="K304" t="n">
-        <v>-6.666666666666793</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L304" t="n">
         <v>47.91000000000007</v>
@@ -15783,7 +15805,7 @@
         <v>41.99999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>-12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>47.93000000000007</v>
@@ -15834,7 +15856,7 @@
         <v>41.99999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>-12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>47.93000000000008</v>
@@ -15885,7 +15907,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>-5.882352941176569</v>
+        <v>20</v>
       </c>
       <c r="L307" t="n">
         <v>47.94000000000008</v>
@@ -15936,7 +15958,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>-12.50000000000022</v>
+        <v>20</v>
       </c>
       <c r="L308" t="n">
         <v>47.95000000000008</v>
@@ -15987,7 +16009,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L309" t="n">
         <v>47.96000000000008</v>
@@ -16089,7 +16111,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L311" t="n">
         <v>47.97000000000008</v>
@@ -16140,7 +16162,7 @@
         <v>42.39999999999998</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L312" t="n">
         <v>47.95000000000009</v>
@@ -16191,7 +16213,7 @@
         <v>42.69999999999998</v>
       </c>
       <c r="K313" t="n">
-        <v>17.64705882352936</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>47.95000000000009</v>
@@ -16242,7 +16264,7 @@
         <v>42.69999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>6.666666666666793</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L314" t="n">
         <v>47.95000000000009</v>
@@ -16293,7 +16315,7 @@
         <v>42.69999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>23.07692307692291</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L315" t="n">
         <v>47.96000000000009</v>
@@ -16344,7 +16366,7 @@
         <v>42.69999999999998</v>
       </c>
       <c r="K316" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>47.9700000000001</v>
@@ -16395,7 +16417,7 @@
         <v>42.69999999999998</v>
       </c>
       <c r="K317" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>47.9700000000001</v>
@@ -16446,7 +16468,7 @@
         <v>42.69999999999998</v>
       </c>
       <c r="K318" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>47.9700000000001</v>
@@ -16497,7 +16519,7 @@
         <v>42.69999999999998</v>
       </c>
       <c r="K319" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>47.9700000000001</v>
@@ -16548,7 +16570,7 @@
         <v>42.69999999999998</v>
       </c>
       <c r="K320" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>47.9700000000001</v>

--- a/BackTest/2019-10-17 BackTest XEM.xlsx
+++ b/BackTest/2019-10-17 BackTest XEM.xlsx
@@ -451,17 +451,13 @@
         <v>47.09999999999996</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>47.16499999999996</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>47.24166666666662</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -579,17 +559,11 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -623,14 +597,8 @@
         <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -661,17 +629,11 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -746,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -828,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -910,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -992,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1033,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1074,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1279,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1320,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1361,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1402,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1443,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1525,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1566,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1607,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1648,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1689,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1730,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1771,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1812,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1853,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1894,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1935,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1976,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2017,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2058,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2099,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2140,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2181,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2222,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2263,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2304,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2345,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2386,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2427,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2468,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2509,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2550,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2591,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2632,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2673,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2714,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2755,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2837,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2878,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2919,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2960,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3001,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3042,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3083,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3165,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3200,22 +2796,14 @@
         <v>49.81500000000004</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K69" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3243,22 +2831,14 @@
         <v>49.78333333333337</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3286,22 +2866,14 @@
         <v>49.75333333333337</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3329,22 +2901,14 @@
         <v>49.71333333333337</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3372,22 +2936,14 @@
         <v>49.67333333333337</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K73" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3415,22 +2971,14 @@
         <v>49.6366666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3458,22 +3006,14 @@
         <v>49.5966666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3501,22 +3041,14 @@
         <v>49.55333333333337</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>48</v>
-      </c>
-      <c r="K76" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3544,22 +3076,14 @@
         <v>49.50833333333337</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>48</v>
-      </c>
-      <c r="K77" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3587,22 +3111,14 @@
         <v>49.4616666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K78" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3630,22 +3146,14 @@
         <v>49.42333333333337</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="K79" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3673,22 +3181,14 @@
         <v>49.39000000000003</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="K80" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3716,22 +3216,14 @@
         <v>49.35000000000003</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3759,22 +3251,14 @@
         <v>49.31500000000003</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3802,22 +3286,14 @@
         <v>49.28000000000004</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3892,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3933,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3974,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4015,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4097,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4179,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4220,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4343,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4384,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4425,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4466,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4507,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4548,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4589,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4630,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4671,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4712,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4753,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4835,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4876,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4917,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4958,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4999,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5040,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5122,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5204,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5286,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5327,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5368,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5409,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5532,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5573,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5655,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5696,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5737,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5772,18 +4966,18 @@
         <v>49.01833333333332</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J131" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -5819,9 +5013,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5860,9 +5052,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5895,15 +5085,15 @@
         <v>49.03166666666666</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J134" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5936,15 +5126,15 @@
         <v>49.04166666666666</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J135" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5977,15 +5167,15 @@
         <v>49.05333333333332</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J136" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6018,15 +5208,15 @@
         <v>49.06499999999998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J137" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6065,9 +5255,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,9 +5294,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6141,15 +5327,15 @@
         <v>49.07999999999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J140" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6182,15 +5368,15 @@
         <v>49.08333333333332</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J141" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,15 +5409,15 @@
         <v>49.08666666666666</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J142" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6264,15 +5450,15 @@
         <v>49.09666666666666</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J143" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6311,9 +5497,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6352,9 +5536,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,9 +5575,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6434,9 +5614,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,9 +5653,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,9 +5692,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,9 +5731,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6598,9 +5770,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,9 +5809,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6680,9 +5848,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6721,9 +5887,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6762,9 +5926,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6803,9 +5965,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6844,9 +6004,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,9 +6043,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6926,9 +6082,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6967,9 +6121,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,9 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7049,9 +6199,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,9 +6238,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7131,9 +6277,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7172,9 +6316,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7213,9 +6355,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7254,9 +6394,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,9 +6433,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,9 +6472,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7377,9 +6511,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7418,9 +6550,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7459,9 +6589,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7500,9 +6628,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7541,9 +6667,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,9 +6706,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,9 +6745,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7664,9 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7705,9 +6823,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,9 +6862,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,9 +6901,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7828,9 +6940,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,9 +6979,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7910,9 +7018,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7951,9 +7057,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7992,9 +7096,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,9 +7135,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8074,9 +7174,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8115,9 +7213,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,9 +7252,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8197,9 +7291,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8232,15 +7324,15 @@
         <v>49.08833333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J191" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,15 +7365,15 @@
         <v>49.09</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J192" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,15 +7406,15 @@
         <v>49.09</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J193" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8355,15 +7447,15 @@
         <v>49.09</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J194" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8396,15 +7488,15 @@
         <v>49.08666666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J195" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,9 +7535,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,9 +7574,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8525,9 +7613,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8566,9 +7652,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,9 +7691,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,9 +7730,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8689,9 +7769,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8730,9 +7808,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8771,9 +7847,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8812,9 +7886,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8853,9 +7925,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8894,9 +7964,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8935,9 +8003,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8976,9 +8042,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9017,9 +8081,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9058,9 +8120,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9099,9 +8159,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9140,9 +8198,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9181,9 +8237,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9216,15 +8270,15 @@
         <v>48.93166666666668</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J215" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9257,15 +8311,15 @@
         <v>48.90833333333334</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J216" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,15 +8352,15 @@
         <v>48.88833333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J217" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9339,15 +8393,15 @@
         <v>48.87166666666668</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J218" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9380,15 +8434,15 @@
         <v>48.85333333333334</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J219" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9421,15 +8475,15 @@
         <v>48.83500000000001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J220" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9470,9 +8524,7 @@
       <c r="J221" t="n">
         <v>48.3</v>
       </c>
-      <c r="K221" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9511,11 +8563,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K222" t="n">
-        <v>48.9</v>
-      </c>
+        <v>48.3</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9556,9 +8606,7 @@
       <c r="J223" t="n">
         <v>48.2</v>
       </c>
-      <c r="K223" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9597,11 +8645,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="K224" t="n">
-        <v>48.9</v>
-      </c>
+        <v>48.2</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,9 +8688,7 @@
       <c r="J225" t="n">
         <v>48.3</v>
       </c>
-      <c r="K225" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9683,11 +8727,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>48</v>
-      </c>
-      <c r="K226" t="n">
-        <v>48.9</v>
-      </c>
+        <v>48.1</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9726,11 +8768,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K227" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.8</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9769,11 +8809,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K228" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.9</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9812,11 +8850,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>48</v>
-      </c>
-      <c r="K229" t="n">
-        <v>48.9</v>
-      </c>
+        <v>48.2</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9855,11 +8891,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="K230" t="n">
-        <v>48.9</v>
-      </c>
+        <v>48.1</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9898,11 +8932,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K231" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.8</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9941,11 +8973,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>48</v>
-      </c>
-      <c r="K232" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.9</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9984,11 +9014,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K233" t="n">
-        <v>48.9</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10029,9 +9057,7 @@
       <c r="J234" t="n">
         <v>48.1</v>
       </c>
-      <c r="K234" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10072,9 +9098,7 @@
       <c r="J235" t="n">
         <v>48</v>
       </c>
-      <c r="K235" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10115,9 +9139,7 @@
       <c r="J236" t="n">
         <v>48</v>
       </c>
-      <c r="K236" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10156,11 +9178,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K237" t="n">
-        <v>48.9</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10199,11 +9219,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="K238" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.7</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,11 +9260,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K239" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.8</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10287,9 +9303,7 @@
       <c r="J240" t="n">
         <v>47.9</v>
       </c>
-      <c r="K240" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10328,11 +9342,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K241" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.7</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10371,11 +9383,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="K242" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.9</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10416,9 +9426,7 @@
       <c r="J243" t="n">
         <v>47.8</v>
       </c>
-      <c r="K243" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10459,9 +9467,7 @@
       <c r="J244" t="n">
         <v>47.8</v>
       </c>
-      <c r="K244" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10500,11 +9506,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>48</v>
-      </c>
-      <c r="K245" t="n">
-        <v>48.9</v>
-      </c>
+        <v>47.9</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10545,9 +9549,7 @@
       <c r="J246" t="n">
         <v>48</v>
       </c>
-      <c r="K246" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10588,9 +9590,7 @@
       <c r="J247" t="n">
         <v>48</v>
       </c>
-      <c r="K247" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10623,17 +9623,13 @@
         <v>48.31833333333334</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K248" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10666,17 +9662,13 @@
         <v>48.31166666666667</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K249" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10709,17 +9701,13 @@
         <v>48.3</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K250" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10752,17 +9740,13 @@
         <v>48.29166666666667</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K251" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10801,11 +9785,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>48</v>
-      </c>
-      <c r="K252" t="n">
-        <v>48.9</v>
-      </c>
+        <v>48.1</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10838,17 +9820,13 @@
         <v>48.27333333333334</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K253" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10881,17 +9859,13 @@
         <v>48.26500000000001</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K254" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,17 +9898,13 @@
         <v>48.25833333333334</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>48</v>
-      </c>
-      <c r="K255" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10967,17 +9937,13 @@
         <v>48.25000000000001</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>48</v>
-      </c>
-      <c r="K256" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11010,17 +9976,13 @@
         <v>48.24166666666667</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>48</v>
-      </c>
-      <c r="K257" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11053,17 +10015,13 @@
         <v>48.22500000000001</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K258" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11096,17 +10054,13 @@
         <v>48.21333333333335</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>48</v>
-      </c>
-      <c r="K259" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11139,17 +10093,13 @@
         <v>48.20666666666668</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>48</v>
-      </c>
-      <c r="K260" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11182,17 +10132,13 @@
         <v>48.19666666666668</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>48</v>
-      </c>
-      <c r="K261" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11225,17 +10171,13 @@
         <v>48.18000000000001</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K262" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11268,17 +10210,13 @@
         <v>48.16333333333334</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K263" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11311,17 +10249,13 @@
         <v>48.14666666666668</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>48</v>
-      </c>
-      <c r="K264" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11354,17 +10288,13 @@
         <v>48.13000000000001</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>48</v>
-      </c>
-      <c r="K265" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11397,17 +10327,13 @@
         <v>48.11666666666667</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>48</v>
-      </c>
-      <c r="K266" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11440,17 +10366,13 @@
         <v>48.105</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K267" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11483,17 +10405,13 @@
         <v>48.09166666666667</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K268" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11526,17 +10444,13 @@
         <v>48.08</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K269" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11569,17 +10483,13 @@
         <v>48.06833333333332</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K270" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11612,17 +10522,13 @@
         <v>48.05999999999999</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K271" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,17 +10561,13 @@
         <v>48.05499999999999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K272" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11698,17 +10600,13 @@
         <v>48.05333333333333</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="K273" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11741,17 +10639,13 @@
         <v>48.05833333333333</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="K274" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11784,17 +10678,13 @@
         <v>48.05666666666666</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="K275" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11827,17 +10717,13 @@
         <v>48.06333333333334</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K276" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11870,17 +10756,13 @@
         <v>48.065</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K277" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11913,17 +10795,13 @@
         <v>48.065</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="K278" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11956,17 +10834,13 @@
         <v>48.065</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="K279" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11999,17 +10873,13 @@
         <v>48.06666666666667</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K280" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12042,17 +10912,13 @@
         <v>48.06666666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K281" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12085,17 +10951,13 @@
         <v>48.06333333333334</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>48</v>
-      </c>
-      <c r="K282" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12128,17 +10990,13 @@
         <v>48.06500000000001</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K283" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12171,17 +11029,13 @@
         <v>48.06166666666667</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K284" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,17 +11068,13 @@
         <v>48.06166666666667</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K285" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12257,17 +11107,13 @@
         <v>48.06666666666667</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K286" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12300,17 +11146,13 @@
         <v>48.07</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K287" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12343,17 +11185,13 @@
         <v>48.07</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="K288" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12386,17 +11224,13 @@
         <v>48.06833333333334</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>48</v>
-      </c>
-      <c r="K289" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12429,17 +11263,13 @@
         <v>48.07166666666667</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>48</v>
-      </c>
-      <c r="K290" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12472,17 +11302,13 @@
         <v>48.07333333333333</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>48</v>
-      </c>
-      <c r="K291" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12515,17 +11341,13 @@
         <v>48.06833333333332</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>48</v>
-      </c>
-      <c r="K292" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12558,17 +11380,13 @@
         <v>48.06166666666665</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K293" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12601,17 +11419,13 @@
         <v>48.05999999999999</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K294" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12644,17 +11458,13 @@
         <v>48.05499999999999</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K295" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12687,17 +11497,13 @@
         <v>48.05333333333332</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K296" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12730,17 +11536,13 @@
         <v>48.05666666666666</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K297" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12773,17 +11575,13 @@
         <v>48.05833333333332</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K298" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12816,17 +11614,13 @@
         <v>48.05833333333332</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="K299" t="n">
-        <v>48.9</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-17 BackTest XEM.xlsx
+++ b/BackTest/2019-10-17 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:M300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="C2" t="n">
         <v>48.9</v>
@@ -442,19 +442,19 @@
         <v>48.9</v>
       </c>
       <c r="E2" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="F2" t="n">
-        <v>82400</v>
+        <v>199077.9761</v>
       </c>
       <c r="G2" t="n">
-        <v>47.09999999999996</v>
+        <v>47.03166666666663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -471,25 +471,25 @@
         <v>48.9</v>
       </c>
       <c r="C3" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="D3" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="E3" t="n">
         <v>48.9</v>
       </c>
       <c r="F3" t="n">
-        <v>187194.0612</v>
+        <v>82400</v>
       </c>
       <c r="G3" t="n">
-        <v>47.16499999999996</v>
+        <v>47.09999999999996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C4" t="n">
         <v>49.2</v>
       </c>
-      <c r="C4" t="n">
-        <v>49.7</v>
-      </c>
       <c r="D4" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F4" t="n">
-        <v>364207.9587</v>
+        <v>187194.0612</v>
       </c>
       <c r="G4" t="n">
-        <v>47.24166666666662</v>
+        <v>47.16499999999996</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="C5" t="n">
         <v>49.7</v>
       </c>
       <c r="D5" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="E5" t="n">
-        <v>49.7</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>25986.4775</v>
+        <v>364207.9587</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31666666666662</v>
+        <v>47.24166666666662</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C6" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
       </c>
       <c r="E6" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1493.2592</v>
+        <v>25986.4775</v>
       </c>
       <c r="G6" t="n">
-        <v>47.38999999999996</v>
+        <v>47.31666666666662</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C7" t="n">
         <v>49.6</v>
       </c>
-      <c r="C7" t="n">
-        <v>49.9</v>
-      </c>
       <c r="D7" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E7" t="n">
         <v>49.6</v>
       </c>
       <c r="F7" t="n">
-        <v>26918.2297</v>
+        <v>1493.2592</v>
       </c>
       <c r="G7" t="n">
-        <v>47.46666666666662</v>
+        <v>47.38999999999996</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C8" t="n">
         <v>49.9</v>
       </c>
-      <c r="C8" t="n">
-        <v>49.8</v>
-      </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E8" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="F8" t="n">
-        <v>56615.5402</v>
+        <v>26918.2297</v>
       </c>
       <c r="G8" t="n">
-        <v>47.54333333333329</v>
+        <v>47.46666666666662</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="C9" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F9" t="n">
-        <v>37157.5328</v>
+        <v>56615.5402</v>
       </c>
       <c r="G9" t="n">
-        <v>47.6183333333333</v>
+        <v>47.54333333333329</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C10" t="n">
         <v>49.9</v>
       </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E10" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="F10" t="n">
-        <v>68891.2</v>
+        <v>37157.5328</v>
       </c>
       <c r="G10" t="n">
-        <v>47.69666666666662</v>
+        <v>47.6183333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="C11" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>50.4</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>49.9</v>
       </c>
       <c r="F11" t="n">
-        <v>81682.81916349</v>
+        <v>68891.2</v>
       </c>
       <c r="G11" t="n">
-        <v>47.76999999999996</v>
+        <v>47.69666666666662</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C12" t="n">
         <v>49.9</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>50.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50.5</v>
       </c>
       <c r="E12" t="n">
         <v>49.9</v>
       </c>
       <c r="F12" t="n">
-        <v>67343.68650793</v>
+        <v>81682.81916349</v>
       </c>
       <c r="G12" t="n">
-        <v>47.85166666666662</v>
+        <v>47.76999999999996</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C13" t="n">
         <v>50.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50.5</v>
       </c>
       <c r="D13" t="n">
         <v>50.5</v>
       </c>
       <c r="E13" t="n">
-        <v>50.4</v>
+        <v>49.9</v>
       </c>
       <c r="F13" t="n">
-        <v>12100</v>
+        <v>67343.68650793</v>
       </c>
       <c r="G13" t="n">
-        <v>47.93333333333329</v>
+        <v>47.85166666666662</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C14" t="n">
         <v>50.5</v>
       </c>
-      <c r="C14" t="n">
-        <v>50.6</v>
-      </c>
       <c r="D14" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="E14" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F14" t="n">
-        <v>36667.65372858</v>
+        <v>12100</v>
       </c>
       <c r="G14" t="n">
-        <v>48.00666666666663</v>
+        <v>47.93333333333329</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="C15" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="E15" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2003.0243</v>
+        <v>36667.65372858</v>
       </c>
       <c r="G15" t="n">
-        <v>48.08499999999997</v>
+        <v>48.00666666666663</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C16" t="n">
         <v>50.4</v>
       </c>
-      <c r="C16" t="n">
-        <v>50.5</v>
-      </c>
       <c r="D16" t="n">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="E16" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="F16" t="n">
-        <v>23140.1179</v>
+        <v>2003.0243</v>
       </c>
       <c r="G16" t="n">
-        <v>48.16166666666663</v>
+        <v>48.08499999999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>50.3</v>
+        <v>50.4</v>
       </c>
       <c r="C17" t="n">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="D17" t="n">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="E17" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="F17" t="n">
-        <v>112358.7698</v>
+        <v>23140.1179</v>
       </c>
       <c r="G17" t="n">
-        <v>48.2383333333333</v>
+        <v>48.16166666666663</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C18" t="n">
         <v>50.7</v>
       </c>
-      <c r="C18" t="n">
-        <v>50.8</v>
-      </c>
       <c r="D18" t="n">
-        <v>50.8</v>
+        <v>50.7</v>
       </c>
       <c r="E18" t="n">
-        <v>50.7</v>
+        <v>50.3</v>
       </c>
       <c r="F18" t="n">
-        <v>68629.94010000001</v>
+        <v>112358.7698</v>
       </c>
       <c r="G18" t="n">
-        <v>48.31499999999997</v>
+        <v>48.2383333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>50.7</v>
       </c>
       <c r="F19" t="n">
-        <v>212743.834</v>
+        <v>68629.94010000001</v>
       </c>
       <c r="G19" t="n">
-        <v>48.39166666666664</v>
+        <v>48.31499999999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>50.4</v>
+        <v>50.7</v>
       </c>
       <c r="C20" t="n">
-        <v>50.4</v>
+        <v>50.8</v>
       </c>
       <c r="D20" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="E20" t="n">
-        <v>50.4</v>
+        <v>50.7</v>
       </c>
       <c r="F20" t="n">
-        <v>135033.27360844</v>
+        <v>212743.834</v>
       </c>
       <c r="G20" t="n">
-        <v>48.46166666666665</v>
+        <v>48.39166666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>50.9</v>
+        <v>50.4</v>
       </c>
       <c r="C21" t="n">
-        <v>50.9</v>
+        <v>50.4</v>
       </c>
       <c r="D21" t="n">
         <v>50.9</v>
@@ -1110,10 +1110,10 @@
         <v>50.4</v>
       </c>
       <c r="F21" t="n">
-        <v>90808.7886</v>
+        <v>135033.27360844</v>
       </c>
       <c r="G21" t="n">
-        <v>48.53999999999998</v>
+        <v>48.46166666666665</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>50.9</v>
       </c>
       <c r="C22" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="E22" t="n">
-        <v>50.6</v>
+        <v>50.4</v>
       </c>
       <c r="F22" t="n">
-        <v>60971.5704</v>
+        <v>90808.7886</v>
       </c>
       <c r="G22" t="n">
-        <v>48.61166666666665</v>
+        <v>48.53999999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C23" t="n">
         <v>50.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>50.5</v>
       </c>
       <c r="D23" t="n">
         <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>50.3</v>
+        <v>50.6</v>
       </c>
       <c r="F23" t="n">
-        <v>286322.7005398</v>
+        <v>60971.5704</v>
       </c>
       <c r="G23" t="n">
-        <v>48.67999999999998</v>
+        <v>48.61166666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.9</v>
+        <v>50.7</v>
       </c>
       <c r="C24" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="D24" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
         <v>50.3</v>
       </c>
       <c r="F24" t="n">
-        <v>68866.67449999999</v>
+        <v>286322.7005398</v>
       </c>
       <c r="G24" t="n">
-        <v>48.75333333333332</v>
+        <v>48.67999999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>50.9</v>
       </c>
       <c r="C25" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="E25" t="n">
-        <v>50.5</v>
+        <v>50.3</v>
       </c>
       <c r="F25" t="n">
-        <v>250165.3934</v>
+        <v>68866.67449999999</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81833333333331</v>
+        <v>48.75333333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="C26" t="n">
         <v>50.6</v>
       </c>
       <c r="D26" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="F26" t="n">
-        <v>17571.1705</v>
+        <v>250165.3934</v>
       </c>
       <c r="G26" t="n">
-        <v>48.88333333333332</v>
+        <v>48.81833333333331</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>50.8</v>
       </c>
       <c r="C27" t="n">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="D27" t="n">
         <v>50.9</v>
@@ -1320,10 +1320,10 @@
         <v>50.6</v>
       </c>
       <c r="F27" t="n">
-        <v>13568.3147</v>
+        <v>17571.1705</v>
       </c>
       <c r="G27" t="n">
-        <v>48.94999999999998</v>
+        <v>48.88333333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>50.8</v>
       </c>
       <c r="C28" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="D28" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="E28" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="F28" t="n">
-        <v>52041.2328</v>
+        <v>13568.3147</v>
       </c>
       <c r="G28" t="n">
-        <v>49.00833333333332</v>
+        <v>48.94999999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C29" t="n">
         <v>50.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>50.8</v>
       </c>
       <c r="D29" t="n">
         <v>50.8</v>
@@ -1390,10 +1390,10 @@
         <v>50.5</v>
       </c>
       <c r="F29" t="n">
-        <v>17864.6181</v>
+        <v>52041.2328</v>
       </c>
       <c r="G29" t="n">
-        <v>49.06166666666665</v>
+        <v>49.00833333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="C30" t="n">
         <v>50.8</v>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="E30" t="n">
         <v>50.5</v>
       </c>
       <c r="F30" t="n">
-        <v>131176.4234</v>
+        <v>17864.6181</v>
       </c>
       <c r="G30" t="n">
-        <v>49.12166666666666</v>
+        <v>49.06166666666665</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="C31" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="D31" t="n">
         <v>51</v>
       </c>
       <c r="E31" t="n">
-        <v>50.4</v>
+        <v>50.5</v>
       </c>
       <c r="F31" t="n">
-        <v>60852.0336</v>
+        <v>131176.4234</v>
       </c>
       <c r="G31" t="n">
-        <v>49.17666666666666</v>
+        <v>49.12166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="C32" t="n">
         <v>50.9</v>
       </c>
       <c r="D32" t="n">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="E32" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F32" t="n">
-        <v>236480.3552</v>
+        <v>60852.0336</v>
       </c>
       <c r="G32" t="n">
-        <v>49.23833333333334</v>
+        <v>49.17666666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="C33" t="n">
         <v>50.9</v>
@@ -1530,10 +1530,10 @@
         <v>50.5</v>
       </c>
       <c r="F33" t="n">
-        <v>32869.0743</v>
+        <v>236480.3552</v>
       </c>
       <c r="G33" t="n">
-        <v>49.3</v>
+        <v>49.23833333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C34" t="n">
         <v>50.9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>50.8</v>
       </c>
       <c r="D34" t="n">
         <v>50.9</v>
       </c>
       <c r="E34" t="n">
-        <v>50.8</v>
+        <v>50.5</v>
       </c>
       <c r="F34" t="n">
-        <v>9945.7996</v>
+        <v>32869.0743</v>
       </c>
       <c r="G34" t="n">
-        <v>49.35833333333334</v>
+        <v>49.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C35" t="n">
         <v>50.8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>50.9</v>
       </c>
       <c r="D35" t="n">
         <v>50.9</v>
@@ -1600,10 +1600,10 @@
         <v>50.8</v>
       </c>
       <c r="F35" t="n">
-        <v>22427.0137</v>
+        <v>9945.7996</v>
       </c>
       <c r="G35" t="n">
-        <v>49.41500000000001</v>
+        <v>49.35833333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C36" t="n">
         <v>50.9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>50.6</v>
       </c>
       <c r="D36" t="n">
         <v>50.9</v>
       </c>
       <c r="E36" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="F36" t="n">
-        <v>27955</v>
+        <v>22427.0137</v>
       </c>
       <c r="G36" t="n">
-        <v>49.46666666666668</v>
+        <v>49.41500000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="C37" t="n">
         <v>50.6</v>
       </c>
       <c r="D37" t="n">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="E37" t="n">
         <v>50.6</v>
       </c>
       <c r="F37" t="n">
-        <v>519.1347</v>
+        <v>27955</v>
       </c>
       <c r="G37" t="n">
-        <v>49.52333333333334</v>
+        <v>49.46666666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="C38" t="n">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="D38" t="n">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="E38" t="n">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="F38" t="n">
-        <v>72027.11010000001</v>
+        <v>519.1347</v>
       </c>
       <c r="G38" t="n">
-        <v>49.58000000000001</v>
+        <v>49.52333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="C39" t="n">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="D39" t="n">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="E39" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F39" t="n">
-        <v>110378.7867</v>
+        <v>72027.11010000001</v>
       </c>
       <c r="G39" t="n">
-        <v>49.63166666666667</v>
+        <v>49.58000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C40" t="n">
         <v>50.7</v>
       </c>
-      <c r="C40" t="n">
-        <v>50.6</v>
-      </c>
       <c r="D40" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="E40" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="F40" t="n">
-        <v>91256.0227</v>
+        <v>110378.7867</v>
       </c>
       <c r="G40" t="n">
-        <v>49.68000000000001</v>
+        <v>49.63166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C41" t="n">
         <v>50.6</v>
       </c>
-      <c r="C41" t="n">
-        <v>50.5</v>
-      </c>
       <c r="D41" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="E41" t="n">
         <v>50.6</v>
       </c>
-      <c r="E41" t="n">
-        <v>50.5</v>
-      </c>
       <c r="F41" t="n">
-        <v>27657.1562</v>
+        <v>91256.0227</v>
       </c>
       <c r="G41" t="n">
-        <v>49.73000000000001</v>
+        <v>49.68000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>50.5</v>
       </c>
       <c r="F42" t="n">
-        <v>57939.0762</v>
+        <v>27657.1562</v>
       </c>
       <c r="G42" t="n">
-        <v>49.77666666666668</v>
+        <v>49.73000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>50.3</v>
+        <v>50.6</v>
       </c>
       <c r="C43" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="D43" t="n">
-        <v>50.3</v>
+        <v>50.6</v>
       </c>
       <c r="E43" t="n">
-        <v>49.9</v>
+        <v>50.5</v>
       </c>
       <c r="F43" t="n">
-        <v>15751.323</v>
+        <v>57939.0762</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81333333333335</v>
+        <v>49.77666666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>49.9</v>
+        <v>50.3</v>
       </c>
       <c r="C44" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D44" t="n">
-        <v>49.9</v>
+        <v>50.3</v>
       </c>
       <c r="E44" t="n">
         <v>49.9</v>
       </c>
       <c r="F44" t="n">
-        <v>15496.418</v>
+        <v>15751.323</v>
       </c>
       <c r="G44" t="n">
-        <v>49.84833333333334</v>
+        <v>49.81333333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>49.9</v>
       </c>
       <c r="C45" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="D45" t="n">
         <v>49.9</v>
       </c>
       <c r="E45" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="F45" t="n">
-        <v>4849.3594</v>
+        <v>15496.418</v>
       </c>
       <c r="G45" t="n">
-        <v>49.87333333333334</v>
+        <v>49.84833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C46" t="n">
         <v>49.3</v>
       </c>
-      <c r="C46" t="n">
-        <v>49.5</v>
-      </c>
       <c r="D46" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E46" t="n">
-        <v>48.8</v>
+        <v>49.3</v>
       </c>
       <c r="F46" t="n">
-        <v>98936.8805</v>
+        <v>4849.3594</v>
       </c>
       <c r="G46" t="n">
-        <v>49.90166666666667</v>
+        <v>49.87333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="C47" t="n">
-        <v>48.8</v>
+        <v>49.5</v>
       </c>
       <c r="D47" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="E47" t="n">
         <v>48.8</v>
       </c>
       <c r="F47" t="n">
-        <v>79939.4927</v>
+        <v>98936.8805</v>
       </c>
       <c r="G47" t="n">
-        <v>49.91500000000001</v>
+        <v>49.90166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="C48" t="n">
         <v>48.8</v>
       </c>
       <c r="D48" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="E48" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F48" t="n">
-        <v>19722.9684</v>
+        <v>79939.4927</v>
       </c>
       <c r="G48" t="n">
-        <v>49.92500000000002</v>
+        <v>49.91500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C49" t="n">
         <v>48.8</v>
       </c>
-      <c r="C49" t="n">
-        <v>49.1</v>
-      </c>
       <c r="D49" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="E49" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="F49" t="n">
-        <v>10575.5041</v>
+        <v>19722.9684</v>
       </c>
       <c r="G49" t="n">
-        <v>49.93666666666668</v>
+        <v>49.92500000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>48.8</v>
       </c>
       <c r="C50" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="D50" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="E50" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F50" t="n">
-        <v>31006.8304</v>
+        <v>10575.5041</v>
       </c>
       <c r="G50" t="n">
-        <v>49.94500000000001</v>
+        <v>49.93666666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="C51" t="n">
         <v>49</v>
@@ -2157,13 +2157,13 @@
         <v>49</v>
       </c>
       <c r="E51" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="F51" t="n">
-        <v>6579.9999</v>
+        <v>31006.8304</v>
       </c>
       <c r="G51" t="n">
-        <v>49.95166666666668</v>
+        <v>49.94500000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C52" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="D52" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="E52" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="F52" t="n">
-        <v>10051.5983</v>
+        <v>6579.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>49.96000000000002</v>
+        <v>49.95166666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>48.9</v>
+        <v>49.2</v>
       </c>
       <c r="C53" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="D53" t="n">
-        <v>48.9</v>
+        <v>49.2</v>
       </c>
       <c r="E53" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F53" t="n">
-        <v>1194.6079</v>
+        <v>10051.5983</v>
       </c>
       <c r="G53" t="n">
-        <v>49.96500000000002</v>
+        <v>49.96000000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>48.9</v>
       </c>
       <c r="C54" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="D54" t="n">
         <v>48.9</v>
       </c>
       <c r="E54" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="F54" t="n">
-        <v>85899.7613</v>
+        <v>1194.6079</v>
       </c>
       <c r="G54" t="n">
-        <v>49.97166666666669</v>
+        <v>49.96500000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,32 +2288,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C55" t="n">
         <v>48.8</v>
       </c>
-      <c r="C55" t="n">
-        <v>49</v>
-      </c>
       <c r="D55" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E55" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="F55" t="n">
-        <v>27600</v>
+        <v>85899.7613</v>
       </c>
       <c r="G55" t="n">
-        <v>49.98000000000002</v>
+        <v>49.97166666666669</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>48.9</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,32 +2329,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="C56" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D56" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E56" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F56" t="n">
-        <v>21068.1819</v>
+        <v>27600</v>
       </c>
       <c r="G56" t="n">
-        <v>49.98666666666669</v>
+        <v>49.98000000000002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>48.8</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,20 +2382,26 @@
         <v>48.9</v>
       </c>
       <c r="F57" t="n">
-        <v>1928.1779</v>
+        <v>21068.1819</v>
       </c>
       <c r="G57" t="n">
-        <v>49.99166666666669</v>
+        <v>49.98666666666669</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>49</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,20 +2423,26 @@
         <v>48.9</v>
       </c>
       <c r="F58" t="n">
-        <v>19.7546</v>
+        <v>1928.1779</v>
       </c>
       <c r="G58" t="n">
-        <v>49.99666666666669</v>
+        <v>49.99166666666669</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>48.9</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,32 +2452,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C59" t="n">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
       <c r="D59" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="E59" t="n">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
       <c r="F59" t="n">
-        <v>12999.8769</v>
+        <v>19.7546</v>
       </c>
       <c r="G59" t="n">
-        <v>49.99500000000003</v>
+        <v>49.99666666666669</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>48.9</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2493,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="C60" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="D60" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="E60" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="F60" t="n">
-        <v>38980.3738</v>
+        <v>12999.8769</v>
       </c>
       <c r="G60" t="n">
-        <v>50.00000000000003</v>
+        <v>49.99500000000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2518,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,7 +2532,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="C61" t="n">
         <v>49</v>
@@ -2507,13 +2541,13 @@
         <v>49</v>
       </c>
       <c r="E61" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="F61" t="n">
-        <v>31638</v>
+        <v>38980.3738</v>
       </c>
       <c r="G61" t="n">
-        <v>50.00166666666669</v>
+        <v>50.00000000000003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2557,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,7 +2571,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48.9</v>
+        <v>48.4</v>
       </c>
       <c r="C62" t="n">
         <v>49</v>
@@ -2542,13 +2580,13 @@
         <v>49</v>
       </c>
       <c r="E62" t="n">
-        <v>48.9</v>
+        <v>48.4</v>
       </c>
       <c r="F62" t="n">
-        <v>9893.05017142</v>
+        <v>31638</v>
       </c>
       <c r="G62" t="n">
-        <v>50.00333333333336</v>
+        <v>50.00166666666669</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2596,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2610,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C63" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="D63" t="n">
-        <v>48.7</v>
+        <v>49</v>
       </c>
       <c r="E63" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="F63" t="n">
-        <v>20132.4798</v>
+        <v>9893.05017142</v>
       </c>
       <c r="G63" t="n">
-        <v>49.9916666666667</v>
+        <v>50.00333333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2635,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2649,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C64" t="n">
         <v>48.5</v>
       </c>
-      <c r="C64" t="n">
-        <v>48.1</v>
-      </c>
       <c r="D64" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E64" t="n">
         <v>48.5</v>
       </c>
-      <c r="E64" t="n">
-        <v>48.1</v>
-      </c>
       <c r="F64" t="n">
-        <v>50244.4568</v>
+        <v>20132.4798</v>
       </c>
       <c r="G64" t="n">
-        <v>49.96500000000003</v>
+        <v>49.9916666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2674,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2688,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C65" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="D65" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="E65" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="F65" t="n">
-        <v>594.109</v>
+        <v>50244.4568</v>
       </c>
       <c r="G65" t="n">
-        <v>49.94166666666671</v>
+        <v>49.96500000000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2713,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2727,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="C66" t="n">
-        <v>47.9</v>
+        <v>48.3</v>
       </c>
       <c r="D66" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="E66" t="n">
-        <v>47.9</v>
+        <v>48.3</v>
       </c>
       <c r="F66" t="n">
-        <v>14125.2833</v>
+        <v>594.109</v>
       </c>
       <c r="G66" t="n">
-        <v>49.91333333333338</v>
+        <v>49.94166666666671</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2752,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2766,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="C67" t="n">
         <v>47.9</v>
       </c>
       <c r="D67" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E67" t="n">
         <v>47.9</v>
       </c>
-      <c r="E67" t="n">
-        <v>47.8</v>
-      </c>
       <c r="F67" t="n">
-        <v>46568.7452</v>
+        <v>14125.2833</v>
       </c>
       <c r="G67" t="n">
-        <v>49.88000000000004</v>
+        <v>49.91333333333338</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2791,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2752,23 +2814,29 @@
         <v>47.9</v>
       </c>
       <c r="E68" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>46568.7452</v>
+      </c>
+      <c r="G68" t="n">
+        <v>49.88000000000004</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>47.9</v>
       </c>
-      <c r="F68" t="n">
-        <v>40.3966</v>
-      </c>
-      <c r="G68" t="n">
-        <v>49.84833333333337</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,7 +2846,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="C69" t="n">
         <v>47.9</v>
@@ -2787,23 +2855,29 @@
         <v>47.9</v>
       </c>
       <c r="E69" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="F69" t="n">
-        <v>8637.477800000001</v>
+        <v>40.3966</v>
       </c>
       <c r="G69" t="n">
-        <v>49.81500000000004</v>
+        <v>49.84833333333337</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>47.9</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,32 +2887,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="C70" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="D70" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="E70" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2041.1149</v>
+        <v>8637.477800000001</v>
       </c>
       <c r="G70" t="n">
-        <v>49.78333333333337</v>
+        <v>49.81500000000004</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>47.9</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2860,20 +2940,26 @@
         <v>48.1</v>
       </c>
       <c r="F71" t="n">
-        <v>12779.9533</v>
+        <v>2041.1149</v>
       </c>
       <c r="G71" t="n">
-        <v>49.75333333333337</v>
+        <v>49.78333333333337</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>47.9</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2886,19 +2972,19 @@
         <v>48.1</v>
       </c>
       <c r="C72" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D72" t="n">
         <v>48.1</v>
       </c>
       <c r="E72" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F72" t="n">
-        <v>8514.3631</v>
+        <v>12779.9533</v>
       </c>
       <c r="G72" t="n">
-        <v>49.71333333333337</v>
+        <v>49.75333333333337</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +2994,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2921,19 +3011,19 @@
         <v>48.1</v>
       </c>
       <c r="C73" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D73" t="n">
         <v>48.1</v>
       </c>
       <c r="E73" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F73" t="n">
-        <v>40017.7512</v>
+        <v>8514.3631</v>
       </c>
       <c r="G73" t="n">
-        <v>49.67333333333337</v>
+        <v>49.71333333333337</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3033,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3047,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C74" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="D74" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="E74" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="F74" t="n">
-        <v>82956.88009999999</v>
+        <v>40017.7512</v>
       </c>
       <c r="G74" t="n">
-        <v>49.6366666666667</v>
+        <v>49.67333333333337</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3072,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2991,19 +3089,19 @@
         <v>48.2</v>
       </c>
       <c r="C75" t="n">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="D75" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E75" t="n">
         <v>48.2</v>
       </c>
-      <c r="E75" t="n">
-        <v>48</v>
-      </c>
       <c r="F75" t="n">
-        <v>7359.2558</v>
+        <v>82956.88009999999</v>
       </c>
       <c r="G75" t="n">
-        <v>49.5966666666667</v>
+        <v>49.6366666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3111,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3125,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C76" t="n">
         <v>48</v>
       </c>
-      <c r="C76" t="n">
-        <v>47.9</v>
-      </c>
       <c r="D76" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E76" t="n">
         <v>48</v>
       </c>
-      <c r="E76" t="n">
-        <v>47.9</v>
-      </c>
       <c r="F76" t="n">
-        <v>77314.5912</v>
+        <v>7359.2558</v>
       </c>
       <c r="G76" t="n">
-        <v>49.55333333333337</v>
+        <v>49.5966666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3150,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3061,19 +3167,19 @@
         <v>48</v>
       </c>
       <c r="C77" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D77" t="n">
         <v>48</v>
       </c>
       <c r="E77" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F77" t="n">
-        <v>13113.0618</v>
+        <v>77314.5912</v>
       </c>
       <c r="G77" t="n">
-        <v>49.50833333333337</v>
+        <v>49.55333333333337</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3189,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,7 +3203,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C78" t="n">
         <v>48</v>
@@ -3102,13 +3212,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F78" t="n">
-        <v>11943.1716</v>
+        <v>13113.0618</v>
       </c>
       <c r="G78" t="n">
-        <v>49.4616666666667</v>
+        <v>49.50833333333337</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3228,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3242,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="C79" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="D79" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="E79" t="n">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="F79" t="n">
-        <v>7800</v>
+        <v>11943.1716</v>
       </c>
       <c r="G79" t="n">
-        <v>49.42333333333337</v>
+        <v>49.4616666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3267,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3281,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C80" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D80" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E80" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="F80" t="n">
-        <v>11</v>
+        <v>7800</v>
       </c>
       <c r="G80" t="n">
-        <v>49.39000000000003</v>
+        <v>49.42333333333337</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3306,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3320,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="D81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="E81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F81" t="n">
-        <v>19600</v>
+        <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>49.35000000000003</v>
+        <v>49.39000000000003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3345,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3359,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C82" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="D82" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="E82" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="F82" t="n">
-        <v>41.8685</v>
+        <v>19600</v>
       </c>
       <c r="G82" t="n">
-        <v>49.31500000000003</v>
+        <v>49.35000000000003</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3384,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3398,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C83" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="D83" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="E83" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>41.8685</v>
       </c>
       <c r="G83" t="n">
-        <v>49.28000000000004</v>
+        <v>49.31500000000003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3423,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3306,19 +3440,19 @@
         <v>48.4</v>
       </c>
       <c r="C84" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D84" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="E84" t="n">
         <v>48.4</v>
       </c>
       <c r="F84" t="n">
-        <v>42306.9876</v>
+        <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>49.2416666666667</v>
+        <v>49.28000000000004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3462,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3476,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C85" t="n">
         <v>48.6</v>
       </c>
-      <c r="C85" t="n">
-        <v>49</v>
-      </c>
       <c r="D85" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="E85" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="F85" t="n">
-        <v>46193.66392857</v>
+        <v>42306.9876</v>
       </c>
       <c r="G85" t="n">
-        <v>49.21500000000003</v>
+        <v>49.2416666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3501,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3515,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="C86" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D86" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E86" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="F86" t="n">
-        <v>9531.0224</v>
+        <v>46193.66392857</v>
       </c>
       <c r="G86" t="n">
-        <v>49.1866666666667</v>
+        <v>49.21500000000003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3540,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3554,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C87" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D87" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E87" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="F87" t="n">
-        <v>5093.9146</v>
+        <v>9531.0224</v>
       </c>
       <c r="G87" t="n">
-        <v>49.1566666666667</v>
+        <v>49.1866666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3579,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3593,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="C88" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D88" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E88" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="F88" t="n">
-        <v>959.1675</v>
+        <v>5093.9146</v>
       </c>
       <c r="G88" t="n">
-        <v>49.13000000000003</v>
+        <v>49.1566666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3618,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3632,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C89" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D89" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E89" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F89" t="n">
-        <v>40609.81847143</v>
+        <v>959.1675</v>
       </c>
       <c r="G89" t="n">
-        <v>49.10000000000003</v>
+        <v>49.13000000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3657,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3671,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>49.8</v>
+        <v>49</v>
       </c>
       <c r="D90" t="n">
-        <v>49.8</v>
+        <v>49</v>
       </c>
       <c r="E90" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="F90" t="n">
-        <v>105564.26789236</v>
+        <v>40609.81847143</v>
       </c>
       <c r="G90" t="n">
-        <v>49.08333333333336</v>
+        <v>49.10000000000003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3696,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3710,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="C91" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D91" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E91" t="n">
         <v>49.2</v>
       </c>
       <c r="F91" t="n">
-        <v>21216.7124</v>
+        <v>105564.26789236</v>
       </c>
       <c r="G91" t="n">
-        <v>49.06333333333336</v>
+        <v>49.08333333333336</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3735,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3749,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="C92" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D92" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="E92" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="F92" t="n">
-        <v>23901.9575</v>
+        <v>21216.7124</v>
       </c>
       <c r="G92" t="n">
-        <v>49.04166666666669</v>
+        <v>49.06333333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3774,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3788,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="C93" t="n">
         <v>49.6</v>
       </c>
       <c r="D93" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E93" t="n">
         <v>49.6</v>
       </c>
       <c r="F93" t="n">
-        <v>34997.8085</v>
+        <v>23901.9575</v>
       </c>
       <c r="G93" t="n">
-        <v>49.02000000000002</v>
+        <v>49.04166666666669</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3813,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3827,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="D94" t="n">
         <v>49.7</v>
       </c>
-      <c r="C94" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D94" t="n">
-        <v>49.9</v>
-      </c>
       <c r="E94" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F94" t="n">
-        <v>10193.61</v>
+        <v>34997.8085</v>
       </c>
       <c r="G94" t="n">
-        <v>49.00500000000002</v>
+        <v>49.02000000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3852,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3866,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C95" t="n">
         <v>49.9</v>
       </c>
-      <c r="C95" t="n">
-        <v>50</v>
-      </c>
       <c r="D95" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E95" t="n">
-        <v>49.9</v>
+        <v>49.7</v>
       </c>
       <c r="F95" t="n">
-        <v>143488.4419</v>
+        <v>10193.61</v>
       </c>
       <c r="G95" t="n">
-        <v>48.99000000000002</v>
+        <v>49.00500000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3891,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3905,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C96" t="n">
         <v>50</v>
       </c>
-      <c r="C96" t="n">
-        <v>50.2</v>
-      </c>
       <c r="D96" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="E96" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="F96" t="n">
-        <v>30446.3609</v>
+        <v>143488.4419</v>
       </c>
       <c r="G96" t="n">
-        <v>48.98333333333335</v>
+        <v>48.99000000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3930,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3944,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>50</v>
+      </c>
+      <c r="C97" t="n">
         <v>50.2</v>
       </c>
-      <c r="C97" t="n">
-        <v>50.4</v>
-      </c>
       <c r="D97" t="n">
-        <v>50.4</v>
+        <v>50.2</v>
       </c>
       <c r="E97" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="F97" t="n">
-        <v>153275.5958</v>
+        <v>30446.3609</v>
       </c>
       <c r="G97" t="n">
-        <v>48.98000000000002</v>
+        <v>48.98333333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3969,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3983,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="C98" t="n">
-        <v>50</v>
+        <v>50.4</v>
       </c>
       <c r="D98" t="n">
-        <v>50.3</v>
+        <v>50.4</v>
       </c>
       <c r="E98" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="F98" t="n">
-        <v>8149.4493</v>
+        <v>153275.5958</v>
       </c>
       <c r="G98" t="n">
-        <v>48.96500000000002</v>
+        <v>48.98000000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4008,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4022,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="C99" t="n">
         <v>50</v>
       </c>
       <c r="D99" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="E99" t="n">
         <v>50</v>
       </c>
       <c r="F99" t="n">
-        <v>2042.9390988</v>
+        <v>8149.4493</v>
       </c>
       <c r="G99" t="n">
-        <v>48.95333333333335</v>
+        <v>48.96500000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4047,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3866,19 +4064,19 @@
         <v>50.2</v>
       </c>
       <c r="C100" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>50.2</v>
       </c>
       <c r="E100" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="F100" t="n">
-        <v>60387.8865</v>
+        <v>2042.9390988</v>
       </c>
       <c r="G100" t="n">
-        <v>48.94666666666669</v>
+        <v>48.95333333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4086,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4100,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="C101" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="D101" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="E101" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="F101" t="n">
-        <v>13481.3726</v>
+        <v>60387.8865</v>
       </c>
       <c r="G101" t="n">
-        <v>48.93500000000002</v>
+        <v>48.94666666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4125,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3936,19 +4142,19 @@
         <v>49.8</v>
       </c>
       <c r="C102" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="D102" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="E102" t="n">
         <v>49.8</v>
       </c>
       <c r="F102" t="n">
-        <v>32150.2469</v>
+        <v>13481.3726</v>
       </c>
       <c r="G102" t="n">
-        <v>48.92833333333336</v>
+        <v>48.93500000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4164,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4178,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C103" t="n">
         <v>50.1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>49.5</v>
       </c>
       <c r="D103" t="n">
         <v>50.1</v>
       </c>
       <c r="E103" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="F103" t="n">
-        <v>18090.9277</v>
+        <v>32150.2469</v>
       </c>
       <c r="G103" t="n">
-        <v>48.92000000000002</v>
+        <v>48.92833333333336</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4203,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4217,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>49.6</v>
+        <v>50.1</v>
       </c>
       <c r="C104" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E104" t="n">
         <v>49.4</v>
       </c>
-      <c r="D104" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>49.3</v>
-      </c>
       <c r="F104" t="n">
-        <v>48687.295</v>
+        <v>18090.9277</v>
       </c>
       <c r="G104" t="n">
-        <v>48.91166666666668</v>
+        <v>48.92000000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4242,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4256,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C105" t="n">
         <v>49.4</v>
       </c>
-      <c r="C105" t="n">
-        <v>49.1</v>
-      </c>
       <c r="D105" t="n">
-        <v>49.4</v>
+        <v>49.9</v>
       </c>
       <c r="E105" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="F105" t="n">
-        <v>106240.8449</v>
+        <v>48687.295</v>
       </c>
       <c r="G105" t="n">
-        <v>48.90833333333335</v>
+        <v>48.91166666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4281,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4295,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="C106" t="n">
         <v>49.1</v>
       </c>
       <c r="D106" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="E106" t="n">
         <v>49.1</v>
       </c>
       <c r="F106" t="n">
-        <v>21971.928</v>
+        <v>106240.8449</v>
       </c>
       <c r="G106" t="n">
-        <v>48.90166666666668</v>
+        <v>48.90833333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4320,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4111,19 +4337,19 @@
         <v>49.2</v>
       </c>
       <c r="C107" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="D107" t="n">
         <v>49.2</v>
       </c>
       <c r="E107" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F107" t="n">
-        <v>6559</v>
+        <v>21971.928</v>
       </c>
       <c r="G107" t="n">
-        <v>48.90833333333334</v>
+        <v>48.90166666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4359,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4373,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="C108" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="D108" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="E108" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="F108" t="n">
-        <v>10151.9595</v>
+        <v>6559</v>
       </c>
       <c r="G108" t="n">
-        <v>48.92</v>
+        <v>48.90833333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4398,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4412,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C109" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="D109" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="E109" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F109" t="n">
-        <v>86045.31721523</v>
+        <v>10151.9595</v>
       </c>
       <c r="G109" t="n">
-        <v>48.93333333333334</v>
+        <v>48.92</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4437,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4451,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="C110" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="D110" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E110" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F110" t="n">
-        <v>55.4444</v>
+        <v>86045.31721523</v>
       </c>
       <c r="G110" t="n">
-        <v>48.94166666666668</v>
+        <v>48.93333333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4476,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4257,13 +4499,13 @@
         <v>49.5</v>
       </c>
       <c r="E111" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F111" t="n">
-        <v>2232.0238</v>
+        <v>55.4444</v>
       </c>
       <c r="G111" t="n">
-        <v>48.95000000000001</v>
+        <v>48.94166666666668</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4515,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4292,13 +4538,13 @@
         <v>49.5</v>
       </c>
       <c r="E112" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F112" t="n">
-        <v>817.0723</v>
+        <v>2232.0238</v>
       </c>
       <c r="G112" t="n">
-        <v>48.95666666666668</v>
+        <v>48.95000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4554,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4568,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="C113" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="D113" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="E113" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="F113" t="n">
-        <v>50908.4673</v>
+        <v>817.0723</v>
       </c>
       <c r="G113" t="n">
-        <v>48.96333333333335</v>
+        <v>48.95666666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4593,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4607,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="C114" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="D114" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="E114" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="F114" t="n">
-        <v>59601.1623</v>
+        <v>50908.4673</v>
       </c>
       <c r="G114" t="n">
-        <v>48.97000000000001</v>
+        <v>48.96333333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4632,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,19 +4646,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="C115" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="D115" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="E115" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="F115" t="n">
-        <v>2478.3032</v>
+        <v>59601.1623</v>
       </c>
       <c r="G115" t="n">
         <v>48.97000000000001</v>
@@ -4413,7 +4671,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,22 +4685,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="C116" t="n">
         <v>49</v>
       </c>
       <c r="D116" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="E116" t="n">
         <v>49</v>
       </c>
       <c r="F116" t="n">
-        <v>4000</v>
+        <v>2478.3032</v>
       </c>
       <c r="G116" t="n">
-        <v>48.97166666666667</v>
+        <v>48.97000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4710,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,19 +4724,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>48.7</v>
+        <v>49</v>
       </c>
       <c r="C117" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D117" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E117" t="n">
-        <v>48.2</v>
+        <v>49</v>
       </c>
       <c r="F117" t="n">
-        <v>145186.8133</v>
+        <v>4000</v>
       </c>
       <c r="G117" t="n">
         <v>48.97166666666667</v>
@@ -4483,7 +4749,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4763,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C118" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D118" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E118" t="n">
-        <v>49</v>
+        <v>48.2</v>
       </c>
       <c r="F118" t="n">
-        <v>718.8163</v>
+        <v>145186.8133</v>
       </c>
       <c r="G118" t="n">
-        <v>48.97333333333334</v>
+        <v>48.97166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4788,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4802,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="C119" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="D119" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="E119" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="F119" t="n">
-        <v>27348.2617</v>
+        <v>718.8163</v>
       </c>
       <c r="G119" t="n">
-        <v>48.97000000000001</v>
+        <v>48.97333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,7 +4827,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4566,19 +4844,19 @@
         <v>48.8</v>
       </c>
       <c r="C120" t="n">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="D120" t="n">
         <v>48.8</v>
       </c>
       <c r="E120" t="n">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="F120" t="n">
-        <v>647.8278</v>
+        <v>27348.2617</v>
       </c>
       <c r="G120" t="n">
-        <v>48.96666666666668</v>
+        <v>48.97000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +4866,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4880,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="C121" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="D121" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="E121" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F121" t="n">
-        <v>4574.02462977</v>
+        <v>647.8278</v>
       </c>
       <c r="G121" t="n">
-        <v>48.96166666666667</v>
+        <v>48.96666666666668</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +4905,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4636,19 +4922,19 @@
         <v>48.7</v>
       </c>
       <c r="C122" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="D122" t="n">
         <v>48.7</v>
       </c>
       <c r="E122" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="F122" t="n">
-        <v>7989.1244</v>
+        <v>4574.02462977</v>
       </c>
       <c r="G122" t="n">
-        <v>48.95500000000001</v>
+        <v>48.96166666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,7 +4944,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4958,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="C123" t="n">
-        <v>48.1</v>
+        <v>48.6</v>
       </c>
       <c r="D123" t="n">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="E123" t="n">
-        <v>48.1</v>
+        <v>48.6</v>
       </c>
       <c r="F123" t="n">
-        <v>10872.1816</v>
+        <v>7989.1244</v>
       </c>
       <c r="G123" t="n">
-        <v>48.94833333333334</v>
+        <v>48.95500000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +4983,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4997,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C124" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="D124" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="E124" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="F124" t="n">
-        <v>1150.1175</v>
+        <v>10872.1816</v>
       </c>
       <c r="G124" t="n">
-        <v>48.95166666666668</v>
+        <v>48.94833333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +5022,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +5036,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="C125" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="D125" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="E125" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="F125" t="n">
-        <v>1028</v>
+        <v>1150.1175</v>
       </c>
       <c r="G125" t="n">
-        <v>48.95666666666667</v>
+        <v>48.95166666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,7 +5061,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4776,19 +5078,19 @@
         <v>48.6</v>
       </c>
       <c r="C126" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="D126" t="n">
         <v>48.6</v>
       </c>
       <c r="E126" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="F126" t="n">
-        <v>2200</v>
+        <v>1028</v>
       </c>
       <c r="G126" t="n">
-        <v>48.96666666666667</v>
+        <v>48.95666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,7 +5100,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,10 +5114,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C127" t="n">
         <v>48.5</v>
-      </c>
-      <c r="C127" t="n">
-        <v>48.6</v>
       </c>
       <c r="D127" t="n">
         <v>48.6</v>
@@ -4820,10 +5126,10 @@
         <v>48.5</v>
       </c>
       <c r="F127" t="n">
-        <v>6604.6158</v>
+        <v>2200</v>
       </c>
       <c r="G127" t="n">
-        <v>48.97833333333333</v>
+        <v>48.96666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,7 +5139,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,7 +5153,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C128" t="n">
         <v>48.6</v>
@@ -4852,13 +5162,13 @@
         <v>48.6</v>
       </c>
       <c r="E128" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="F128" t="n">
-        <v>1376.4953</v>
+        <v>6604.6158</v>
       </c>
       <c r="G128" t="n">
-        <v>48.98999999999999</v>
+        <v>48.97833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,7 +5178,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4890,10 +5204,10 @@
         <v>48.6</v>
       </c>
       <c r="F129" t="n">
-        <v>14800</v>
+        <v>1376.4953</v>
       </c>
       <c r="G129" t="n">
-        <v>49.00166666666666</v>
+        <v>48.98999999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,7 +5217,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4919,16 +5237,16 @@
         <v>48.6</v>
       </c>
       <c r="D130" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="E130" t="n">
         <v>48.6</v>
       </c>
       <c r="F130" t="n">
-        <v>7838.2722</v>
+        <v>14800</v>
       </c>
       <c r="G130" t="n">
-        <v>49.00999999999999</v>
+        <v>49.00166666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,7 +5256,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,36 +5270,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C131" t="n">
         <v>48.6</v>
       </c>
       <c r="D131" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="E131" t="n">
         <v>48.6</v>
       </c>
-      <c r="E131" t="n">
-        <v>48.4</v>
-      </c>
       <c r="F131" t="n">
-        <v>6773.0898</v>
+        <v>7838.2722</v>
       </c>
       <c r="G131" t="n">
-        <v>49.01833333333332</v>
+        <v>49.00999999999999</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>48.6</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -4989,22 +5309,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C132" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E132" t="n">
         <v>48.4</v>
       </c>
-      <c r="D132" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>48.3</v>
-      </c>
       <c r="F132" t="n">
-        <v>20654.1563</v>
+        <v>6773.0898</v>
       </c>
       <c r="G132" t="n">
-        <v>49.02499999999999</v>
+        <v>49.01833333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5028,10 +5348,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C133" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="D133" t="n">
         <v>48.5</v>
@@ -5040,10 +5360,10 @@
         <v>48.3</v>
       </c>
       <c r="F133" t="n">
-        <v>16463.8307</v>
+        <v>20654.1563</v>
       </c>
       <c r="G133" t="n">
-        <v>49.03166666666666</v>
+        <v>49.02499999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5067,32 +5387,30 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C134" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D134" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E134" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="F134" t="n">
-        <v>1297.3773</v>
+        <v>16463.8307</v>
       </c>
       <c r="G134" t="n">
         <v>49.03166666666666</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>48.5</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5111,29 +5429,27 @@
         <v>48.4</v>
       </c>
       <c r="C135" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D135" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="E135" t="n">
         <v>48.4</v>
       </c>
       <c r="F135" t="n">
-        <v>40677.9999</v>
+        <v>1297.3773</v>
       </c>
       <c r="G135" t="n">
-        <v>49.04166666666666</v>
+        <v>49.03166666666666</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>48.4</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5149,7 +5465,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C136" t="n">
         <v>48.6</v>
@@ -5158,23 +5474,21 @@
         <v>48.7</v>
       </c>
       <c r="E136" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F136" t="n">
-        <v>55.9609</v>
+        <v>40677.9999</v>
       </c>
       <c r="G136" t="n">
-        <v>49.05333333333332</v>
+        <v>49.04166666666666</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>48.6</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5190,32 +5504,30 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="C137" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="D137" t="n">
         <v>48.7</v>
       </c>
       <c r="E137" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="F137" t="n">
-        <v>11400</v>
+        <v>55.9609</v>
       </c>
       <c r="G137" t="n">
-        <v>49.06499999999998</v>
+        <v>49.05333333333332</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>48.6</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5234,19 +5546,19 @@
         <v>48.7</v>
       </c>
       <c r="C138" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="D138" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="E138" t="n">
         <v>48.7</v>
       </c>
       <c r="F138" t="n">
-        <v>46771.8069</v>
+        <v>11400</v>
       </c>
       <c r="G138" t="n">
-        <v>49.07833333333333</v>
+        <v>49.06499999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5270,22 +5582,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="C139" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="D139" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="E139" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="F139" t="n">
-        <v>100816.2429</v>
+        <v>46771.8069</v>
       </c>
       <c r="G139" t="n">
-        <v>49.07666666666666</v>
+        <v>49.07833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5309,32 +5621,30 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C140" t="n">
         <v>48.4</v>
       </c>
-      <c r="C140" t="n">
-        <v>48.6</v>
-      </c>
       <c r="D140" t="n">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
       <c r="E140" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="F140" t="n">
-        <v>107566.568</v>
+        <v>100816.2429</v>
       </c>
       <c r="G140" t="n">
-        <v>49.07999999999999</v>
+        <v>49.07666666666666</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>48.4</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5350,32 +5660,30 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="C141" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="D141" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="E141" t="n">
-        <v>48.7</v>
+        <v>48.2</v>
       </c>
       <c r="F141" t="n">
-        <v>4502.5051</v>
+        <v>107566.568</v>
       </c>
       <c r="G141" t="n">
-        <v>49.08333333333332</v>
+        <v>49.07999999999999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>48.6</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5394,29 +5702,27 @@
         <v>48.7</v>
       </c>
       <c r="C142" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="D142" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="E142" t="n">
         <v>48.7</v>
       </c>
       <c r="F142" t="n">
-        <v>61101.0338</v>
+        <v>4502.5051</v>
       </c>
       <c r="G142" t="n">
-        <v>49.08666666666666</v>
+        <v>49.08333333333332</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>48.7</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5432,32 +5738,30 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="C143" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="D143" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="E143" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="F143" t="n">
-        <v>50000</v>
+        <v>61101.0338</v>
       </c>
       <c r="G143" t="n">
-        <v>49.09666666666666</v>
+        <v>49.08666666666666</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>48.8</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5473,22 +5777,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C144" t="n">
         <v>49</v>
       </c>
-      <c r="C144" t="n">
-        <v>49.1</v>
-      </c>
       <c r="D144" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="E144" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F144" t="n">
-        <v>35314.2605</v>
+        <v>50000</v>
       </c>
       <c r="G144" t="n">
-        <v>49.10499999999999</v>
+        <v>49.09666666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5524,10 +5828,10 @@
         <v>49</v>
       </c>
       <c r="F145" t="n">
-        <v>1010</v>
+        <v>35314.2605</v>
       </c>
       <c r="G145" t="n">
-        <v>49.10666666666665</v>
+        <v>49.10499999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5551,7 +5855,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="C146" t="n">
         <v>49.1</v>
@@ -5560,13 +5864,13 @@
         <v>49.1</v>
       </c>
       <c r="E146" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="F146" t="n">
-        <v>335.7636</v>
+        <v>1010</v>
       </c>
       <c r="G146" t="n">
-        <v>49.10999999999999</v>
+        <v>49.10666666666665</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5590,22 +5894,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="C147" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="D147" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="E147" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F147" t="n">
-        <v>23602.2483</v>
+        <v>335.7636</v>
       </c>
       <c r="G147" t="n">
-        <v>49.11666666666665</v>
+        <v>49.10999999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5629,22 +5933,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="C148" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D148" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E148" t="n">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="F148" t="n">
-        <v>20017.1919</v>
+        <v>23602.2483</v>
       </c>
       <c r="G148" t="n">
-        <v>49.12666666666665</v>
+        <v>49.11666666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5680,10 +5984,10 @@
         <v>49.5</v>
       </c>
       <c r="F149" t="n">
-        <v>2644.0202</v>
+        <v>20017.1919</v>
       </c>
       <c r="G149" t="n">
-        <v>49.13499999999998</v>
+        <v>49.12666666666665</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5710,16 +6014,16 @@
         <v>49.5</v>
       </c>
       <c r="C150" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="D150" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E150" t="n">
         <v>49.5</v>
       </c>
       <c r="F150" t="n">
-        <v>159971.4023</v>
+        <v>2644.0202</v>
       </c>
       <c r="G150" t="n">
         <v>49.13499999999998</v>
@@ -5746,22 +6050,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>49.9</v>
+        <v>49.5</v>
       </c>
       <c r="C151" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D151" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E151" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="F151" t="n">
-        <v>83910.4823</v>
+        <v>159971.4023</v>
       </c>
       <c r="G151" t="n">
-        <v>49.13833333333332</v>
+        <v>49.13499999999998</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5785,22 +6089,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="C152" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="D152" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="E152" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F152" t="n">
-        <v>21705.0424</v>
+        <v>83910.4823</v>
       </c>
       <c r="G152" t="n">
-        <v>49.13999999999999</v>
+        <v>49.13833333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5824,7 +6128,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="C153" t="n">
         <v>49.7</v>
@@ -5833,13 +6137,13 @@
         <v>49.7</v>
       </c>
       <c r="E153" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="F153" t="n">
-        <v>19374.4198</v>
+        <v>21705.0424</v>
       </c>
       <c r="G153" t="n">
-        <v>49.14166666666665</v>
+        <v>49.13999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5863,22 +6167,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="C154" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D154" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E154" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F154" t="n">
-        <v>2669.8571</v>
+        <v>19374.4198</v>
       </c>
       <c r="G154" t="n">
-        <v>49.13666666666665</v>
+        <v>49.14166666666665</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5902,7 +6206,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C155" t="n">
         <v>49.6</v>
@@ -5914,10 +6218,10 @@
         <v>49.5</v>
       </c>
       <c r="F155" t="n">
-        <v>19248.4466</v>
+        <v>2669.8571</v>
       </c>
       <c r="G155" t="n">
-        <v>49.12999999999998</v>
+        <v>49.13666666666665</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5950,13 +6254,13 @@
         <v>49.6</v>
       </c>
       <c r="E156" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F156" t="n">
-        <v>4000</v>
+        <v>19248.4466</v>
       </c>
       <c r="G156" t="n">
-        <v>49.11999999999998</v>
+        <v>49.12999999999998</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5980,22 +6284,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="C157" t="n">
         <v>49.6</v>
       </c>
       <c r="D157" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="E157" t="n">
         <v>49.6</v>
       </c>
       <c r="F157" t="n">
-        <v>13580.4655</v>
+        <v>4000</v>
       </c>
       <c r="G157" t="n">
-        <v>49.10666666666665</v>
+        <v>49.11999999999998</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6019,22 +6323,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="C158" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D158" t="n">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="E158" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F158" t="n">
-        <v>4948.523</v>
+        <v>13580.4655</v>
       </c>
       <c r="G158" t="n">
-        <v>49.09666666666665</v>
+        <v>49.10666666666665</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6058,22 +6362,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="C159" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D159" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="E159" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F159" t="n">
-        <v>7984.6929</v>
+        <v>4948.523</v>
       </c>
       <c r="G159" t="n">
-        <v>49.08499999999999</v>
+        <v>49.09666666666665</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6097,22 +6401,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C160" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="D160" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E160" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F160" t="n">
-        <v>3561.8314</v>
+        <v>7984.6929</v>
       </c>
       <c r="G160" t="n">
-        <v>49.07166666666665</v>
+        <v>49.08499999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6136,22 +6440,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C161" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D161" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E161" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F161" t="n">
-        <v>23255.1228</v>
+        <v>3561.8314</v>
       </c>
       <c r="G161" t="n">
-        <v>49.06333333333332</v>
+        <v>49.07166666666665</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6187,10 +6491,10 @@
         <v>49.3</v>
       </c>
       <c r="F162" t="n">
-        <v>9028.3815</v>
+        <v>23255.1228</v>
       </c>
       <c r="G162" t="n">
-        <v>49.04999999999999</v>
+        <v>49.06333333333332</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6226,10 +6530,10 @@
         <v>49.3</v>
       </c>
       <c r="F163" t="n">
-        <v>524.3085</v>
+        <v>9028.3815</v>
       </c>
       <c r="G163" t="n">
-        <v>49.04666666666666</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6265,10 +6569,10 @@
         <v>49.3</v>
       </c>
       <c r="F164" t="n">
-        <v>18302.7705</v>
+        <v>524.3085</v>
       </c>
       <c r="G164" t="n">
-        <v>49.04499999999999</v>
+        <v>49.04666666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6292,22 +6596,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C165" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="D165" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E165" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="F165" t="n">
-        <v>16465.8652</v>
+        <v>18302.7705</v>
       </c>
       <c r="G165" t="n">
-        <v>49.04666666666666</v>
+        <v>49.04499999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6331,22 +6635,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="C166" t="n">
         <v>49.2</v>
       </c>
       <c r="D166" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="E166" t="n">
         <v>49.2</v>
       </c>
       <c r="F166" t="n">
-        <v>14163.4096</v>
+        <v>16465.8652</v>
       </c>
       <c r="G166" t="n">
-        <v>49.04833333333332</v>
+        <v>49.04666666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6382,7 +6686,7 @@
         <v>49.2</v>
       </c>
       <c r="F167" t="n">
-        <v>67919.5025</v>
+        <v>14163.4096</v>
       </c>
       <c r="G167" t="n">
         <v>49.04833333333332</v>
@@ -6409,22 +6713,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="C168" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="D168" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="E168" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="F168" t="n">
-        <v>372.3377</v>
+        <v>67919.5025</v>
       </c>
       <c r="G168" t="n">
-        <v>49.04499999999999</v>
+        <v>49.04833333333332</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6460,10 +6764,10 @@
         <v>49.3</v>
       </c>
       <c r="F169" t="n">
-        <v>2254</v>
+        <v>372.3377</v>
       </c>
       <c r="G169" t="n">
-        <v>49.035</v>
+        <v>49.04499999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6490,19 +6794,19 @@
         <v>49.3</v>
       </c>
       <c r="C170" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="D170" t="n">
         <v>49.3</v>
       </c>
       <c r="E170" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="F170" t="n">
-        <v>1919.99227565</v>
+        <v>2254</v>
       </c>
       <c r="G170" t="n">
-        <v>49.02999999999999</v>
+        <v>49.035</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6526,22 +6830,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="C171" t="n">
         <v>49.2</v>
       </c>
       <c r="D171" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="E171" t="n">
         <v>49.2</v>
       </c>
       <c r="F171" t="n">
-        <v>13380.11280487</v>
+        <v>1919.99227565</v>
       </c>
       <c r="G171" t="n">
-        <v>49.02499999999999</v>
+        <v>49.02999999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6565,7 +6869,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="C172" t="n">
         <v>49.2</v>
@@ -6574,13 +6878,13 @@
         <v>49.2</v>
       </c>
       <c r="E172" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="F172" t="n">
-        <v>42293</v>
+        <v>13380.11280487</v>
       </c>
       <c r="G172" t="n">
-        <v>49.01999999999999</v>
+        <v>49.02499999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6604,7 +6908,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="C173" t="n">
         <v>49.2</v>
@@ -6613,13 +6917,13 @@
         <v>49.2</v>
       </c>
       <c r="E173" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F173" t="n">
-        <v>15780.6755</v>
+        <v>42293</v>
       </c>
       <c r="G173" t="n">
-        <v>49.01833333333332</v>
+        <v>49.01999999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6646,19 +6950,19 @@
         <v>49.2</v>
       </c>
       <c r="C174" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="D174" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="E174" t="n">
         <v>49.2</v>
       </c>
       <c r="F174" t="n">
-        <v>28200</v>
+        <v>15780.6755</v>
       </c>
       <c r="G174" t="n">
-        <v>49.02166666666665</v>
+        <v>49.01833333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6682,7 +6986,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="C175" t="n">
         <v>49.4</v>
@@ -6691,13 +6995,13 @@
         <v>49.4</v>
       </c>
       <c r="E175" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="F175" t="n">
-        <v>25.7894</v>
+        <v>28200</v>
       </c>
       <c r="G175" t="n">
-        <v>49.02833333333332</v>
+        <v>49.02166666666665</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6721,19 +7025,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C176" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="D176" t="n">
         <v>49.4</v>
       </c>
       <c r="E176" t="n">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="F176" t="n">
-        <v>13167.9102</v>
+        <v>25.7894</v>
       </c>
       <c r="G176" t="n">
         <v>49.02833333333332</v>
@@ -6760,22 +7064,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="C177" t="n">
         <v>49</v>
       </c>
       <c r="D177" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="E177" t="n">
         <v>49</v>
       </c>
       <c r="F177" t="n">
-        <v>19039.7202</v>
+        <v>13167.9102</v>
       </c>
       <c r="G177" t="n">
-        <v>49.02999999999999</v>
+        <v>49.02833333333332</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6799,22 +7103,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>48.8</v>
+        <v>49.2</v>
       </c>
       <c r="C178" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="D178" t="n">
-        <v>48.8</v>
+        <v>49.2</v>
       </c>
       <c r="E178" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="F178" t="n">
-        <v>383.8165</v>
+        <v>19039.7202</v>
       </c>
       <c r="G178" t="n">
-        <v>49.02666666666666</v>
+        <v>49.02999999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6838,22 +7142,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="C179" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="D179" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="E179" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F179" t="n">
-        <v>3402.678</v>
+        <v>383.8165</v>
       </c>
       <c r="G179" t="n">
-        <v>49.03499999999999</v>
+        <v>49.02666666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6877,22 +7181,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="C180" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D180" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E180" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="F180" t="n">
-        <v>3157.7235</v>
+        <v>3402.678</v>
       </c>
       <c r="G180" t="n">
-        <v>49.03833333333332</v>
+        <v>49.03499999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6928,10 +7232,10 @@
         <v>49</v>
       </c>
       <c r="F181" t="n">
-        <v>17849.9999</v>
+        <v>3157.7235</v>
       </c>
       <c r="G181" t="n">
-        <v>49.04333333333332</v>
+        <v>49.03833333333332</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6955,22 +7259,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="C182" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="D182" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="E182" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="F182" t="n">
-        <v>7311.029</v>
+        <v>17849.9999</v>
       </c>
       <c r="G182" t="n">
-        <v>49.05166666666666</v>
+        <v>49.04333333333332</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6994,22 +7298,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="C183" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="D183" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="E183" t="n">
         <v>48.8</v>
       </c>
       <c r="F183" t="n">
-        <v>1469.4965</v>
+        <v>7311.029</v>
       </c>
       <c r="G183" t="n">
-        <v>49.06499999999999</v>
+        <v>49.05166666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7033,7 +7337,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="C184" t="n">
         <v>48.9</v>
@@ -7045,10 +7349,10 @@
         <v>48.8</v>
       </c>
       <c r="F184" t="n">
-        <v>6461.7533</v>
+        <v>1469.4965</v>
       </c>
       <c r="G184" t="n">
-        <v>49.075</v>
+        <v>49.06499999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7075,19 +7379,19 @@
         <v>48.8</v>
       </c>
       <c r="C185" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="D185" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="E185" t="n">
         <v>48.8</v>
       </c>
       <c r="F185" t="n">
-        <v>5491.2488</v>
+        <v>6461.7533</v>
       </c>
       <c r="G185" t="n">
-        <v>49.07833333333333</v>
+        <v>49.075</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7111,22 +7415,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="C186" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="D186" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="E186" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F186" t="n">
-        <v>43611.5313</v>
+        <v>5491.2488</v>
       </c>
       <c r="G186" t="n">
-        <v>49.08166666666666</v>
+        <v>49.07833333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7162,10 +7466,10 @@
         <v>48.7</v>
       </c>
       <c r="F187" t="n">
-        <v>22994.8277</v>
+        <v>43611.5313</v>
       </c>
       <c r="G187" t="n">
-        <v>49.08333333333333</v>
+        <v>49.08166666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7192,19 +7496,19 @@
         <v>48.7</v>
       </c>
       <c r="C188" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="D188" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="E188" t="n">
         <v>48.7</v>
       </c>
       <c r="F188" t="n">
-        <v>149.20081987</v>
+        <v>22994.8277</v>
       </c>
       <c r="G188" t="n">
-        <v>49.08666666666667</v>
+        <v>49.08333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7228,19 +7532,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="C189" t="n">
-        <v>48.6</v>
+        <v>48.8</v>
       </c>
       <c r="D189" t="n">
-        <v>48.6</v>
+        <v>48.8</v>
       </c>
       <c r="E189" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="F189" t="n">
-        <v>17720.2332</v>
+        <v>149.20081987</v>
       </c>
       <c r="G189" t="n">
         <v>49.08666666666667</v>
@@ -7267,22 +7571,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="C190" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="D190" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="E190" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="F190" t="n">
-        <v>2700.3263</v>
+        <v>17720.2332</v>
       </c>
       <c r="G190" t="n">
-        <v>49.08833333333333</v>
+        <v>49.08666666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7306,32 +7610,30 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="C191" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="D191" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="E191" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="F191" t="n">
-        <v>1082</v>
+        <v>2700.3263</v>
       </c>
       <c r="G191" t="n">
         <v>49.08833333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>48.7</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7347,32 +7649,30 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="C192" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="D192" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="E192" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="F192" t="n">
-        <v>3090.0673</v>
+        <v>1082</v>
       </c>
       <c r="G192" t="n">
-        <v>49.09</v>
+        <v>49.08833333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>48.6</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7388,32 +7688,30 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C193" t="n">
         <v>48.5</v>
       </c>
       <c r="D193" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="E193" t="n">
         <v>48.5</v>
       </c>
       <c r="F193" t="n">
-        <v>8999.324699999999</v>
+        <v>3090.0673</v>
       </c>
       <c r="G193" t="n">
         <v>49.09</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>48.5</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7429,32 +7727,30 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C194" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D194" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="E194" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F194" t="n">
-        <v>13047.8325</v>
+        <v>8999.324699999999</v>
       </c>
       <c r="G194" t="n">
         <v>49.09</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>48.5</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7476,26 +7772,24 @@
         <v>48.4</v>
       </c>
       <c r="D195" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="E195" t="n">
         <v>48.4</v>
       </c>
       <c r="F195" t="n">
-        <v>10984.1667</v>
+        <v>13047.8325</v>
       </c>
       <c r="G195" t="n">
-        <v>49.08666666666667</v>
+        <v>49.09</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>48.4</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7514,7 +7808,7 @@
         <v>48.4</v>
       </c>
       <c r="C196" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="D196" t="n">
         <v>48.5</v>
@@ -7523,10 +7817,10 @@
         <v>48.4</v>
       </c>
       <c r="F196" t="n">
-        <v>9082.264999999999</v>
+        <v>10984.1667</v>
       </c>
       <c r="G196" t="n">
-        <v>49.085</v>
+        <v>49.08666666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7550,7 +7844,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C197" t="n">
         <v>48.5</v>
@@ -7559,13 +7853,13 @@
         <v>48.5</v>
       </c>
       <c r="E197" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F197" t="n">
-        <v>4528.9277</v>
+        <v>9082.264999999999</v>
       </c>
       <c r="G197" t="n">
-        <v>49.08166666666667</v>
+        <v>49.085</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7589,22 +7883,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="C198" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="D198" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="E198" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F198" t="n">
-        <v>7509.6758</v>
+        <v>4528.9277</v>
       </c>
       <c r="G198" t="n">
-        <v>49.08333333333334</v>
+        <v>49.08166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7628,22 +7922,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="C199" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="D199" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="E199" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="F199" t="n">
-        <v>64.5398</v>
+        <v>7509.6758</v>
       </c>
       <c r="G199" t="n">
-        <v>49.08833333333333</v>
+        <v>49.08333333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7667,22 +7961,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="C200" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="D200" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="E200" t="n">
-        <v>48.4</v>
+        <v>48.7</v>
       </c>
       <c r="F200" t="n">
-        <v>3172.1159</v>
+        <v>64.5398</v>
       </c>
       <c r="G200" t="n">
-        <v>49.085</v>
+        <v>49.08833333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7706,22 +8000,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C201" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D201" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="E201" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F201" t="n">
-        <v>10635.3395</v>
+        <v>3172.1159</v>
       </c>
       <c r="G201" t="n">
-        <v>49.08333333333334</v>
+        <v>49.085</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7745,22 +8039,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="C202" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="D202" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="E202" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="F202" t="n">
-        <v>21800</v>
+        <v>10635.3395</v>
       </c>
       <c r="G202" t="n">
-        <v>49.085</v>
+        <v>49.08333333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7784,7 +8078,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="C203" t="n">
         <v>48.9</v>
@@ -7793,13 +8087,13 @@
         <v>48.9</v>
       </c>
       <c r="E203" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F203" t="n">
-        <v>1572.0375</v>
+        <v>21800</v>
       </c>
       <c r="G203" t="n">
-        <v>49.08333333333334</v>
+        <v>49.085</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7823,22 +8117,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C204" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D204" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E204" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F204" t="n">
-        <v>10000</v>
+        <v>1572.0375</v>
       </c>
       <c r="G204" t="n">
-        <v>49.08166666666667</v>
+        <v>49.08333333333334</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7874,10 +8168,10 @@
         <v>49</v>
       </c>
       <c r="F205" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G205" t="n">
-        <v>49.08000000000001</v>
+        <v>49.08166666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7901,22 +8195,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C206" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D206" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E206" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="F206" t="n">
-        <v>375.1213</v>
+        <v>2000</v>
       </c>
       <c r="G206" t="n">
-        <v>49.07666666666668</v>
+        <v>49.08000000000001</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7952,10 +8246,10 @@
         <v>48.9</v>
       </c>
       <c r="F207" t="n">
-        <v>16283.534</v>
+        <v>375.1213</v>
       </c>
       <c r="G207" t="n">
-        <v>49.06833333333334</v>
+        <v>49.07666666666668</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7979,22 +8273,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C208" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D208" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E208" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>16283.534</v>
       </c>
       <c r="G208" t="n">
-        <v>49.06000000000001</v>
+        <v>49.06833333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8018,22 +8312,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C209" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D209" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E209" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="F209" t="n">
-        <v>2693.5755</v>
+        <v>10</v>
       </c>
       <c r="G209" t="n">
-        <v>49.05</v>
+        <v>49.06000000000001</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8069,10 +8363,10 @@
         <v>48.9</v>
       </c>
       <c r="F210" t="n">
-        <v>14648</v>
+        <v>2693.5755</v>
       </c>
       <c r="G210" t="n">
-        <v>49.035</v>
+        <v>49.05</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8096,22 +8390,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C211" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="D211" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="E211" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="F211" t="n">
-        <v>4329.1095</v>
+        <v>14648</v>
       </c>
       <c r="G211" t="n">
-        <v>49.015</v>
+        <v>49.035</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8135,22 +8429,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="C212" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="D212" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="E212" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="F212" t="n">
-        <v>217.456</v>
+        <v>4329.1095</v>
       </c>
       <c r="G212" t="n">
-        <v>48.99666666666667</v>
+        <v>49.015</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8174,22 +8468,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C213" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="D213" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="E213" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="F213" t="n">
-        <v>1436.1284</v>
+        <v>217.456</v>
       </c>
       <c r="G213" t="n">
-        <v>48.97500000000001</v>
+        <v>48.99666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8213,22 +8507,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="C214" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="D214" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="E214" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="F214" t="n">
-        <v>20893.8899</v>
+        <v>1436.1284</v>
       </c>
       <c r="G214" t="n">
-        <v>48.95000000000001</v>
+        <v>48.97500000000001</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8252,32 +8546,30 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="C215" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="D215" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="E215" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="F215" t="n">
-        <v>17006.1237</v>
+        <v>20893.8899</v>
       </c>
       <c r="G215" t="n">
-        <v>48.93166666666668</v>
+        <v>48.95000000000001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8293,32 +8585,30 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="C216" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="D216" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="E216" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="F216" t="n">
-        <v>1517.7707</v>
+        <v>17006.1237</v>
       </c>
       <c r="G216" t="n">
-        <v>48.90833333333334</v>
+        <v>48.93166666666668</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>48.5</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8334,32 +8624,30 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="C217" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="D217" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="E217" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="F217" t="n">
-        <v>14207</v>
+        <v>1517.7707</v>
       </c>
       <c r="G217" t="n">
-        <v>48.88833333333334</v>
+        <v>48.90833333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8387,20 +8675,18 @@
         <v>48.4</v>
       </c>
       <c r="F218" t="n">
-        <v>1966.9246</v>
+        <v>14207</v>
       </c>
       <c r="G218" t="n">
-        <v>48.87166666666668</v>
+        <v>48.88833333333334</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>48.4</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8416,32 +8702,30 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="C219" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="D219" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="E219" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="F219" t="n">
-        <v>739.3392</v>
+        <v>1966.9246</v>
       </c>
       <c r="G219" t="n">
-        <v>48.85333333333334</v>
+        <v>48.87166666666668</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>48.4</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8457,32 +8741,30 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C220" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="D220" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="E220" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="F220" t="n">
-        <v>130.8447</v>
+        <v>739.3392</v>
       </c>
       <c r="G220" t="n">
-        <v>48.83500000000001</v>
+        <v>48.85333333333334</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8510,20 +8792,18 @@
         <v>48.3</v>
       </c>
       <c r="F221" t="n">
-        <v>223.7432</v>
+        <v>130.8447</v>
       </c>
       <c r="G221" t="n">
-        <v>48.81833333333334</v>
+        <v>48.83500000000001</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>48.3</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8539,32 +8819,30 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="C222" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="D222" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="E222" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="F222" t="n">
-        <v>1482.6501</v>
+        <v>223.7432</v>
       </c>
       <c r="G222" t="n">
-        <v>48.8</v>
+        <v>48.81833333333334</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>48.3</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8592,20 +8870,18 @@
         <v>48.2</v>
       </c>
       <c r="F223" t="n">
-        <v>325.2903</v>
+        <v>1482.6501</v>
       </c>
       <c r="G223" t="n">
-        <v>48.78166666666666</v>
+        <v>48.8</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8621,32 +8897,30 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C224" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="D224" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="E224" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="F224" t="n">
-        <v>103.4265</v>
+        <v>325.2903</v>
       </c>
       <c r="G224" t="n">
-        <v>48.76499999999999</v>
+        <v>48.78166666666666</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8665,29 +8939,27 @@
         <v>48.3</v>
       </c>
       <c r="C225" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="D225" t="n">
         <v>48.3</v>
       </c>
       <c r="E225" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="F225" t="n">
-        <v>1501.8333</v>
+        <v>103.4265</v>
       </c>
       <c r="G225" t="n">
-        <v>48.74666666666666</v>
+        <v>48.76499999999999</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>48.3</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8703,32 +8975,30 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="C226" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="D226" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="E226" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="F226" t="n">
-        <v>5299.9004</v>
+        <v>1501.8333</v>
       </c>
       <c r="G226" t="n">
-        <v>48.72333333333334</v>
+        <v>48.74666666666666</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8744,32 +9014,30 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C227" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D227" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E227" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F227" t="n">
-        <v>507.2249</v>
+        <v>5299.9004</v>
       </c>
       <c r="G227" t="n">
-        <v>48.70166666666668</v>
+        <v>48.72333333333334</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -8785,32 +9053,30 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C228" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="D228" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E228" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="F228" t="n">
-        <v>10</v>
+        <v>507.2249</v>
       </c>
       <c r="G228" t="n">
-        <v>48.68333333333333</v>
+        <v>48.70166666666668</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -8826,32 +9092,30 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="C229" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="D229" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E229" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="F229" t="n">
-        <v>166562.1636</v>
+        <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>48.66333333333333</v>
+        <v>48.68333333333333</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>48.2</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
@@ -8867,32 +9131,30 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="C230" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="D230" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="E230" t="n">
         <v>47.8</v>
       </c>
       <c r="F230" t="n">
-        <v>393.2314</v>
+        <v>166562.1636</v>
       </c>
       <c r="G230" t="n">
-        <v>48.64</v>
+        <v>48.66333333333333</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -8908,32 +9170,30 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="C231" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D231" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="E231" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F231" t="n">
-        <v>653.3154</v>
+        <v>393.2314</v>
       </c>
       <c r="G231" t="n">
-        <v>48.61833333333334</v>
+        <v>48.64</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
@@ -8949,32 +9209,30 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C232" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D232" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E232" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F232" t="n">
-        <v>1695</v>
+        <v>653.3154</v>
       </c>
       <c r="G232" t="n">
-        <v>48.59833333333334</v>
+        <v>48.61833333333334</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
@@ -8990,32 +9248,30 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C233" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D233" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E233" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F233" t="n">
-        <v>30.4481</v>
+        <v>1695</v>
       </c>
       <c r="G233" t="n">
-        <v>48.58000000000001</v>
+        <v>48.59833333333334</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>48</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -9034,29 +9290,27 @@
         <v>48.1</v>
       </c>
       <c r="C234" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D234" t="n">
         <v>48.1</v>
       </c>
       <c r="E234" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F234" t="n">
-        <v>8426.474899999999</v>
+        <v>30.4481</v>
       </c>
       <c r="G234" t="n">
-        <v>48.55666666666668</v>
+        <v>48.58000000000001</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -9072,32 +9326,30 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C235" t="n">
         <v>48</v>
       </c>
       <c r="D235" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E235" t="n">
         <v>48</v>
       </c>
       <c r="F235" t="n">
-        <v>28088.06236666</v>
+        <v>8426.474899999999</v>
       </c>
       <c r="G235" t="n">
-        <v>48.53333333333334</v>
+        <v>48.55666666666668</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>48</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -9119,26 +9371,24 @@
         <v>48</v>
       </c>
       <c r="D236" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E236" t="n">
         <v>48</v>
       </c>
       <c r="F236" t="n">
-        <v>384.2119</v>
+        <v>28088.06236666</v>
       </c>
       <c r="G236" t="n">
-        <v>48.51666666666667</v>
+        <v>48.53333333333334</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>48</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
@@ -9154,32 +9404,30 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C237" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="D237" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="E237" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="F237" t="n">
-        <v>5341.1195</v>
+        <v>384.2119</v>
       </c>
       <c r="G237" t="n">
-        <v>48.495</v>
+        <v>48.51666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>48</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
@@ -9195,32 +9443,30 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="C238" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="D238" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E238" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="F238" t="n">
-        <v>1402.8644</v>
+        <v>5341.1195</v>
       </c>
       <c r="G238" t="n">
-        <v>48.47833333333334</v>
+        <v>48.495</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -9236,32 +9482,30 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="C239" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D239" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="E239" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F239" t="n">
-        <v>9797.257100000001</v>
+        <v>1402.8644</v>
       </c>
       <c r="G239" t="n">
-        <v>48.46166666666667</v>
+        <v>48.47833333333334</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -9280,29 +9524,27 @@
         <v>47.9</v>
       </c>
       <c r="C240" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="D240" t="n">
         <v>47.9</v>
       </c>
       <c r="E240" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="F240" t="n">
-        <v>756.7533</v>
+        <v>9797.257100000001</v>
       </c>
       <c r="G240" t="n">
-        <v>48.44</v>
+        <v>48.46166666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
@@ -9321,29 +9563,27 @@
         <v>47.9</v>
       </c>
       <c r="C241" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="D241" t="n">
         <v>47.9</v>
       </c>
       <c r="E241" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="F241" t="n">
-        <v>2721.4536</v>
+        <v>756.7533</v>
       </c>
       <c r="G241" t="n">
-        <v>48.42166666666667</v>
+        <v>48.44</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>47.7</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -9359,32 +9599,30 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="C242" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="D242" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E242" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="F242" t="n">
-        <v>1763.345</v>
+        <v>2721.4536</v>
       </c>
       <c r="G242" t="n">
-        <v>48.40000000000001</v>
+        <v>48.42166666666667</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -9412,20 +9650,18 @@
         <v>47.8</v>
       </c>
       <c r="F243" t="n">
-        <v>8774.8802</v>
+        <v>1763.345</v>
       </c>
       <c r="G243" t="n">
-        <v>48.38166666666667</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -9444,29 +9680,27 @@
         <v>47.8</v>
       </c>
       <c r="C244" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D244" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="E244" t="n">
         <v>47.8</v>
       </c>
       <c r="F244" t="n">
-        <v>103788.1685</v>
+        <v>8774.8802</v>
       </c>
       <c r="G244" t="n">
-        <v>48.36500000000001</v>
+        <v>48.38166666666667</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
@@ -9482,32 +9716,30 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="C245" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D245" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="E245" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="F245" t="n">
-        <v>17063.927</v>
+        <v>103788.1685</v>
       </c>
       <c r="G245" t="n">
-        <v>48.35166666666667</v>
+        <v>48.36500000000001</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>47.9</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
@@ -9535,20 +9767,18 @@
         <v>48</v>
       </c>
       <c r="F246" t="n">
-        <v>185.4729</v>
+        <v>17063.927</v>
       </c>
       <c r="G246" t="n">
-        <v>48.34000000000001</v>
+        <v>48.35166666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>48</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -9576,20 +9806,18 @@
         <v>48</v>
       </c>
       <c r="F247" t="n">
-        <v>15145.2104</v>
+        <v>185.4729</v>
       </c>
       <c r="G247" t="n">
-        <v>48.32833333333335</v>
+        <v>48.34000000000001</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>48</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -9605,22 +9833,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C248" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="D248" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="E248" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F248" t="n">
-        <v>610.1292999999999</v>
+        <v>15145.2104</v>
       </c>
       <c r="G248" t="n">
-        <v>48.31833333333334</v>
+        <v>48.32833333333335</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9653,13 +9881,13 @@
         <v>48.2</v>
       </c>
       <c r="E249" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="F249" t="n">
-        <v>109.0663</v>
+        <v>610.1292999999999</v>
       </c>
       <c r="G249" t="n">
-        <v>48.31166666666667</v>
+        <v>48.31833333333334</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9686,19 +9914,19 @@
         <v>48.2</v>
       </c>
       <c r="C250" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="D250" t="n">
         <v>48.2</v>
       </c>
       <c r="E250" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F250" t="n">
-        <v>7033.751</v>
+        <v>109.0663</v>
       </c>
       <c r="G250" t="n">
-        <v>48.3</v>
+        <v>48.31166666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9722,22 +9950,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C251" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D251" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E251" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F251" t="n">
-        <v>18579.9554</v>
+        <v>7033.751</v>
       </c>
       <c r="G251" t="n">
-        <v>48.29166666666667</v>
+        <v>48.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9761,32 +9989,30 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C252" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D252" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E252" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F252" t="n">
-        <v>3240.8811</v>
+        <v>18579.9554</v>
       </c>
       <c r="G252" t="n">
-        <v>48.28333333333334</v>
+        <v>48.29166666666667</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>48.1</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
@@ -9802,22 +10028,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C253" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D253" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="E253" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F253" t="n">
-        <v>3419.4345</v>
+        <v>3240.8811</v>
       </c>
       <c r="G253" t="n">
-        <v>48.27333333333334</v>
+        <v>48.28333333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9850,13 +10076,13 @@
         <v>47.9</v>
       </c>
       <c r="E254" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="F254" t="n">
-        <v>6993.6048</v>
+        <v>3419.4345</v>
       </c>
       <c r="G254" t="n">
-        <v>48.26500000000001</v>
+        <v>48.27333333333334</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9880,22 +10106,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="C255" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D255" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="E255" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="F255" t="n">
-        <v>40.8125</v>
+        <v>6993.6048</v>
       </c>
       <c r="G255" t="n">
-        <v>48.25833333333334</v>
+        <v>48.26500000000001</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9931,10 +10157,10 @@
         <v>48</v>
       </c>
       <c r="F256" t="n">
-        <v>13.75</v>
+        <v>40.8125</v>
       </c>
       <c r="G256" t="n">
-        <v>48.25000000000001</v>
+        <v>48.25833333333334</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9970,10 +10196,10 @@
         <v>48</v>
       </c>
       <c r="F257" t="n">
-        <v>148.8</v>
+        <v>13.75</v>
       </c>
       <c r="G257" t="n">
-        <v>48.24166666666667</v>
+        <v>48.25000000000001</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9997,22 +10223,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C258" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D258" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="E258" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F258" t="n">
-        <v>133.9066</v>
+        <v>148.8</v>
       </c>
       <c r="G258" t="n">
-        <v>48.22500000000001</v>
+        <v>48.24166666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10036,22 +10262,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="C259" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D259" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="E259" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F259" t="n">
-        <v>328.5676</v>
+        <v>133.9066</v>
       </c>
       <c r="G259" t="n">
-        <v>48.21333333333335</v>
+        <v>48.22500000000001</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10087,10 +10313,10 @@
         <v>48</v>
       </c>
       <c r="F260" t="n">
-        <v>251.0936</v>
+        <v>328.5676</v>
       </c>
       <c r="G260" t="n">
-        <v>48.20666666666668</v>
+        <v>48.21333333333335</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10126,10 +10352,10 @@
         <v>48</v>
       </c>
       <c r="F261" t="n">
-        <v>63.7083</v>
+        <v>251.0936</v>
       </c>
       <c r="G261" t="n">
-        <v>48.19666666666668</v>
+        <v>48.20666666666668</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10153,22 +10379,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C262" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D262" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="E262" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F262" t="n">
-        <v>34.6737</v>
+        <v>63.7083</v>
       </c>
       <c r="G262" t="n">
-        <v>48.18000000000001</v>
+        <v>48.19666666666668</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10204,10 +10430,10 @@
         <v>47.9</v>
       </c>
       <c r="F263" t="n">
-        <v>122.7034</v>
+        <v>34.6737</v>
       </c>
       <c r="G263" t="n">
-        <v>48.16333333333334</v>
+        <v>48.18000000000001</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10231,22 +10457,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="C264" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D264" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="E264" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F264" t="n">
-        <v>502.7852</v>
+        <v>122.7034</v>
       </c>
       <c r="G264" t="n">
-        <v>48.14666666666668</v>
+        <v>48.16333333333334</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10282,10 +10508,10 @@
         <v>48</v>
       </c>
       <c r="F265" t="n">
-        <v>137.7458</v>
+        <v>502.7852</v>
       </c>
       <c r="G265" t="n">
-        <v>48.13000000000001</v>
+        <v>48.14666666666668</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10312,19 +10538,19 @@
         <v>48</v>
       </c>
       <c r="C266" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D266" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E266" t="n">
         <v>48</v>
       </c>
       <c r="F266" t="n">
-        <v>2930.2764</v>
+        <v>137.7458</v>
       </c>
       <c r="G266" t="n">
-        <v>48.11666666666667</v>
+        <v>48.13000000000001</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10348,22 +10574,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C267" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="D267" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E267" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F267" t="n">
-        <v>111.1202</v>
+        <v>2930.2764</v>
       </c>
       <c r="G267" t="n">
-        <v>48.105</v>
+        <v>48.11666666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10399,10 +10625,10 @@
         <v>48.2</v>
       </c>
       <c r="F268" t="n">
-        <v>271.9602</v>
+        <v>111.1202</v>
       </c>
       <c r="G268" t="n">
-        <v>48.09166666666667</v>
+        <v>48.105</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10438,10 +10664,10 @@
         <v>48.2</v>
       </c>
       <c r="F269" t="n">
-        <v>9586.559999999999</v>
+        <v>271.9602</v>
       </c>
       <c r="G269" t="n">
-        <v>48.08</v>
+        <v>48.09166666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10477,10 +10703,10 @@
         <v>48.2</v>
       </c>
       <c r="F270" t="n">
-        <v>1823.5715</v>
+        <v>9586.559999999999</v>
       </c>
       <c r="G270" t="n">
-        <v>48.06833333333332</v>
+        <v>48.08</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10516,10 +10742,10 @@
         <v>48.2</v>
       </c>
       <c r="F271" t="n">
-        <v>380.9334</v>
+        <v>1823.5715</v>
       </c>
       <c r="G271" t="n">
-        <v>48.05999999999999</v>
+        <v>48.06833333333332</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10546,19 +10772,19 @@
         <v>48.2</v>
       </c>
       <c r="C272" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="D272" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="E272" t="n">
         <v>48.2</v>
       </c>
       <c r="F272" t="n">
-        <v>1801.6379</v>
+        <v>380.9334</v>
       </c>
       <c r="G272" t="n">
-        <v>48.05499999999999</v>
+        <v>48.05999999999999</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10582,7 +10808,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="C273" t="n">
         <v>48.3</v>
@@ -10591,13 +10817,13 @@
         <v>48.3</v>
       </c>
       <c r="E273" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="F273" t="n">
-        <v>25238.9948</v>
+        <v>1801.6379</v>
       </c>
       <c r="G273" t="n">
-        <v>48.05333333333333</v>
+        <v>48.05499999999999</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10621,22 +10847,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="C274" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="D274" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="E274" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="F274" t="n">
-        <v>335.1372</v>
+        <v>25238.9948</v>
       </c>
       <c r="G274" t="n">
-        <v>48.05833333333333</v>
+        <v>48.05333333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10672,10 +10898,10 @@
         <v>48.4</v>
       </c>
       <c r="F275" t="n">
-        <v>1351.0279</v>
+        <v>335.1372</v>
       </c>
       <c r="G275" t="n">
-        <v>48.05666666666666</v>
+        <v>48.05833333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10699,22 +10925,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C276" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D276" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="E276" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F276" t="n">
-        <v>3217.3242</v>
+        <v>1351.0279</v>
       </c>
       <c r="G276" t="n">
-        <v>48.06333333333334</v>
+        <v>48.05666666666666</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10741,19 +10967,19 @@
         <v>48.5</v>
       </c>
       <c r="C277" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="D277" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="E277" t="n">
         <v>48.5</v>
       </c>
       <c r="F277" t="n">
-        <v>12912.1302</v>
+        <v>3217.3242</v>
       </c>
       <c r="G277" t="n">
-        <v>48.065</v>
+        <v>48.06333333333334</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10780,16 +11006,16 @@
         <v>48.5</v>
       </c>
       <c r="C278" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="D278" t="n">
         <v>48.5</v>
       </c>
       <c r="E278" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="F278" t="n">
-        <v>1511.3404</v>
+        <v>12912.1302</v>
       </c>
       <c r="G278" t="n">
         <v>48.065</v>
@@ -10816,19 +11042,19 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C279" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="D279" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="E279" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="F279" t="n">
-        <v>21376.0508</v>
+        <v>1511.3404</v>
       </c>
       <c r="G279" t="n">
         <v>48.065</v>
@@ -10855,22 +11081,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C280" t="n">
         <v>48.2</v>
       </c>
-      <c r="C280" t="n">
-        <v>48.4</v>
-      </c>
       <c r="D280" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="E280" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F280" t="n">
-        <v>41109.0467</v>
+        <v>21376.0508</v>
       </c>
       <c r="G280" t="n">
-        <v>48.06666666666667</v>
+        <v>48.065</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10897,16 +11123,16 @@
         <v>48.2</v>
       </c>
       <c r="C281" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="D281" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="E281" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F281" t="n">
-        <v>26526.9565</v>
+        <v>41109.0467</v>
       </c>
       <c r="G281" t="n">
         <v>48.06666666666667</v>
@@ -10933,22 +11159,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="C282" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="D282" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="E282" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F282" t="n">
-        <v>1434.7693</v>
+        <v>26526.9565</v>
       </c>
       <c r="G282" t="n">
-        <v>48.06333333333334</v>
+        <v>48.06666666666667</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10972,22 +11198,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C283" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="D283" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="E283" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F283" t="n">
-        <v>8914.375577430001</v>
+        <v>1434.7693</v>
       </c>
       <c r="G283" t="n">
-        <v>48.06500000000001</v>
+        <v>48.06333333333334</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11011,22 +11237,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C284" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="D284" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="E284" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="F284" t="n">
-        <v>606</v>
+        <v>8914.375577430001</v>
       </c>
       <c r="G284" t="n">
-        <v>48.06166666666667</v>
+        <v>48.06500000000001</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11062,7 +11288,7 @@
         <v>48.1</v>
       </c>
       <c r="F285" t="n">
-        <v>4298.3392</v>
+        <v>606</v>
       </c>
       <c r="G285" t="n">
         <v>48.06166666666667</v>
@@ -11101,10 +11327,10 @@
         <v>48.1</v>
       </c>
       <c r="F286" t="n">
-        <v>2962.227</v>
+        <v>4298.3392</v>
       </c>
       <c r="G286" t="n">
-        <v>48.06666666666667</v>
+        <v>48.06166666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -11140,10 +11366,10 @@
         <v>48.1</v>
       </c>
       <c r="F287" t="n">
-        <v>204.7233</v>
+        <v>2962.227</v>
       </c>
       <c r="G287" t="n">
-        <v>48.07</v>
+        <v>48.06666666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -11170,16 +11396,16 @@
         <v>48.1</v>
       </c>
       <c r="C288" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="D288" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E288" t="n">
         <v>48.1</v>
       </c>
       <c r="F288" t="n">
-        <v>15994.3008</v>
+        <v>204.7233</v>
       </c>
       <c r="G288" t="n">
         <v>48.07</v>
@@ -11206,22 +11432,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C289" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="D289" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="E289" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F289" t="n">
-        <v>27131.3005</v>
+        <v>15994.3008</v>
       </c>
       <c r="G289" t="n">
-        <v>48.06833333333334</v>
+        <v>48.07</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11257,10 +11483,10 @@
         <v>48</v>
       </c>
       <c r="F290" t="n">
-        <v>53723.1824</v>
+        <v>27131.3005</v>
       </c>
       <c r="G290" t="n">
-        <v>48.07166666666667</v>
+        <v>48.06833333333334</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11296,10 +11522,10 @@
         <v>48</v>
       </c>
       <c r="F291" t="n">
-        <v>2786.0502</v>
+        <v>53723.1824</v>
       </c>
       <c r="G291" t="n">
-        <v>48.07333333333333</v>
+        <v>48.07166666666667</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11326,19 +11552,19 @@
         <v>48</v>
       </c>
       <c r="C292" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="D292" t="n">
         <v>48</v>
       </c>
       <c r="E292" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="F292" t="n">
-        <v>49580</v>
+        <v>2786.0502</v>
       </c>
       <c r="G292" t="n">
-        <v>48.06833333333332</v>
+        <v>48.07333333333333</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11362,22 +11588,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="C293" t="n">
         <v>47.7</v>
       </c>
       <c r="D293" t="n">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="E293" t="n">
         <v>47.7</v>
       </c>
       <c r="F293" t="n">
-        <v>19554</v>
+        <v>49580</v>
       </c>
       <c r="G293" t="n">
-        <v>48.06166666666665</v>
+        <v>48.06833333333332</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11404,19 +11630,19 @@
         <v>47.7</v>
       </c>
       <c r="C294" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="D294" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="E294" t="n">
         <v>47.7</v>
       </c>
       <c r="F294" t="n">
-        <v>6614.154</v>
+        <v>19554</v>
       </c>
       <c r="G294" t="n">
-        <v>48.05999999999999</v>
+        <v>48.06166666666665</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11443,19 +11669,19 @@
         <v>47.7</v>
       </c>
       <c r="C295" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="D295" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="E295" t="n">
         <v>47.7</v>
       </c>
       <c r="F295" t="n">
-        <v>6244.9314</v>
+        <v>6614.154</v>
       </c>
       <c r="G295" t="n">
-        <v>48.05499999999999</v>
+        <v>48.05999999999999</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11479,22 +11705,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="C296" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="D296" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="E296" t="n">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="F296" t="n">
-        <v>1115.3652</v>
+        <v>6244.9314</v>
       </c>
       <c r="G296" t="n">
-        <v>48.05333333333332</v>
+        <v>48.05499999999999</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11530,10 +11756,10 @@
         <v>47.9</v>
       </c>
       <c r="F297" t="n">
-        <v>27.1189</v>
+        <v>1115.3652</v>
       </c>
       <c r="G297" t="n">
-        <v>48.05666666666666</v>
+        <v>48.05333333333332</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11569,10 +11795,10 @@
         <v>47.9</v>
       </c>
       <c r="F298" t="n">
-        <v>295.1043</v>
+        <v>27.1189</v>
       </c>
       <c r="G298" t="n">
-        <v>48.05833333333332</v>
+        <v>48.05666666666666</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11608,7 +11834,7 @@
         <v>47.9</v>
       </c>
       <c r="F299" t="n">
-        <v>73.7787</v>
+        <v>295.1043</v>
       </c>
       <c r="G299" t="n">
         <v>48.05833333333332</v>
@@ -11627,6 +11853,45 @@
         </is>
       </c>
       <c r="M299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C300" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D300" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E300" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F300" t="n">
+        <v>73.7787</v>
+      </c>
+      <c r="G300" t="n">
+        <v>48.05833333333332</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M300" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest XEM.xlsx
+++ b/BackTest/2019-10-17 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N368"/>
+  <dimension ref="A1:M368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>213381.8963619</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>211392.8393619</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>45.3</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>213232.8393619</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>45.1</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>213232.8393619</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>45.2</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>226470.9338619</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>45.2</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>221076.0553619</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>45.3</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>247373.3753619</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>45.2</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,21 @@
         <v>236694.5688619</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>45.4</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +757,21 @@
         <v>237756.5688619</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>45.3</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +796,21 @@
         <v>237756.5688619</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>45.5</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +835,21 @@
         <v>242209.6204619</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>45.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +874,21 @@
         <v>306598.0033238</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>45.6</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +913,21 @@
         <v>103021.38541112</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>46.2</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +952,21 @@
         <v>104576.0904111201</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>45.7</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +991,21 @@
         <v>105548.1888111201</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>45.9</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,24 +1030,21 @@
         <v>121620.52691112</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>46.1</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,24 +1069,21 @@
         <v>121620.52691112</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>46.2</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,24 +1108,21 @@
         <v>121620.52691112</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>46.2</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,24 +1147,21 @@
         <v>121620.52691112</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
         <v>46.2</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,24 +1186,21 @@
         <v>122515.72671112</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>46.2</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1290,24 +1225,21 @@
         <v>122515.72671112</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>46.4</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1332,24 +1264,21 @@
         <v>134041.95141112</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>46.4</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1374,24 +1303,21 @@
         <v>141241.95141112</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>46.5</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1416,24 +1342,21 @@
         <v>141241.95141112</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>46.7</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1458,22 +1381,21 @@
         <v>152303.66761112</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1498,22 +1420,21 @@
         <v>154925.29351112</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1538,22 +1459,21 @@
         <v>231252.16761112</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1580,20 +1500,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1620,20 +1537,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1660,20 +1574,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1700,20 +1611,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1740,20 +1648,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1780,20 +1685,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1820,20 +1722,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1860,20 +1759,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1900,20 +1796,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1940,20 +1833,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1980,20 +1870,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2020,20 +1907,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2060,20 +1944,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2100,20 +1981,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2140,20 +2018,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2180,20 +2055,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2220,20 +2092,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2260,20 +2129,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2300,20 +2166,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2340,20 +2203,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2380,20 +2240,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2420,20 +2277,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2460,20 +2314,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2500,20 +2351,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2540,20 +2388,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2580,20 +2425,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2620,20 +2462,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2660,20 +2499,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2700,20 +2536,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2740,20 +2573,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2780,20 +2610,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2820,20 +2647,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2860,20 +2684,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2900,20 +2721,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2940,20 +2758,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2980,20 +2795,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3020,20 +2832,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3060,20 +2869,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3100,20 +2906,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3140,20 +2943,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3178,22 +2978,17 @@
         <v>1351219.41991112</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3220,20 +3015,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3260,18 +3048,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L71" t="n">
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3296,18 +3079,15 @@
         <v>1348980.28725556</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3334,16 +3114,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3370,16 +3147,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3406,16 +3180,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3442,16 +3213,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3478,16 +3246,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3514,16 +3279,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3550,16 +3312,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3586,16 +3345,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3622,16 +3378,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3658,16 +3411,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3694,16 +3444,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3730,16 +3477,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3766,16 +3510,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3802,16 +3543,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3838,16 +3576,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3874,16 +3609,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3910,16 +3642,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3946,16 +3675,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3982,16 +3708,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4018,16 +3741,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4054,16 +3774,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4090,16 +3807,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4126,16 +3840,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4162,16 +3873,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4198,16 +3906,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4234,16 +3939,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4270,16 +3972,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4306,16 +4005,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4342,16 +4038,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4378,16 +4071,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4414,16 +4104,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4450,16 +4137,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4486,16 +4170,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4522,16 +4203,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4558,16 +4236,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4594,16 +4269,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4630,16 +4302,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4666,16 +4335,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4702,16 +4368,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4738,16 +4401,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4774,16 +4434,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4810,16 +4467,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4846,16 +4500,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4882,16 +4533,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4918,16 +4566,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4954,16 +4599,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4990,16 +4632,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5026,16 +4665,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5062,16 +4698,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5098,16 +4731,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5134,16 +4764,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5170,16 +4797,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5206,16 +4830,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5240,18 +4861,15 @@
         <v>716491.7561359</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5276,18 +4894,15 @@
         <v>716491.7561359</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5312,18 +4927,15 @@
         <v>716491.7561359</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5348,18 +4960,15 @@
         <v>718532.8710359001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5384,18 +4993,15 @@
         <v>718532.8710359001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5420,18 +5026,15 @@
         <v>710018.5079359001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5456,18 +5059,15 @@
         <v>750036.2591359001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5492,18 +5092,15 @@
         <v>832993.1392359</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5530,16 +5127,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5566,16 +5160,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5602,16 +5193,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5638,16 +5226,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5674,16 +5259,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5708,18 +5290,15 @@
         <v>769221.3540359</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5744,18 +5323,15 @@
         <v>788821.3540359</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5780,18 +5356,15 @@
         <v>788863.2225359</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5816,18 +5389,15 @@
         <v>788852.2225359</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5854,16 +5424,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5890,16 +5457,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5924,18 +5488,15 @@
         <v>867821.8516644699</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5960,18 +5521,15 @@
         <v>872915.7662644699</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5998,16 +5556,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6034,16 +5589,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6068,18 +5620,15 @@
         <v>1018130.68512826</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6104,18 +5653,15 @@
         <v>996913.97272826</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6142,16 +5688,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6178,16 +5721,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6214,16 +5754,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6250,16 +5787,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6286,16 +5820,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6322,16 +5853,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6358,16 +5886,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6394,16 +5919,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6428,18 +5950,15 @@
         <v>1362654.46102826</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6464,18 +5983,15 @@
         <v>1349173.08842826</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6500,18 +6016,15 @@
         <v>1381323.33532826</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6538,16 +6051,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6572,18 +6082,15 @@
         <v>1314545.11262826</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6610,16 +6117,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6646,16 +6150,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6682,16 +6183,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6718,16 +6216,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6754,16 +6249,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6790,16 +6282,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6826,16 +6315,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6862,16 +6348,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6898,16 +6381,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6934,16 +6414,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6970,16 +6447,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7006,16 +6480,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7042,16 +6513,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7078,16 +6546,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7114,16 +6579,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7150,16 +6612,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7186,16 +6645,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7222,16 +6678,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7258,16 +6711,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7294,16 +6744,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7330,16 +6777,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7366,16 +6810,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7402,16 +6843,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7438,16 +6876,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7474,16 +6909,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7510,16 +6942,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7546,16 +6975,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7582,16 +7008,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7618,16 +7041,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7654,16 +7074,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7690,16 +7107,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7726,16 +7140,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7762,16 +7173,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7798,16 +7206,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7834,16 +7239,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7870,16 +7272,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7906,16 +7305,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7942,16 +7338,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7978,16 +7371,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8014,16 +7404,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8050,16 +7437,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8086,16 +7470,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8122,16 +7503,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8158,16 +7536,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8194,16 +7569,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8230,16 +7602,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8266,16 +7635,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8302,16 +7668,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8338,16 +7701,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8374,16 +7734,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8410,16 +7767,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8444,18 +7798,15 @@
         <v>1524152.792713721</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8480,18 +7831,15 @@
         <v>1524152.792713721</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8518,16 +7866,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8552,18 +7897,15 @@
         <v>1511219.576813721</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8590,16 +7932,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8626,16 +7965,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8662,16 +7998,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8698,16 +8031,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8734,16 +8064,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8770,16 +8097,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8806,16 +8130,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8842,16 +8163,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8876,18 +8194,15 @@
         <v>1475432.757913721</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8912,18 +8227,15 @@
         <v>1475432.757913721</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8948,18 +8260,15 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8984,18 +8293,15 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9022,16 +8328,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9056,18 +8359,15 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9094,16 +8394,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9130,16 +8427,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9166,16 +8460,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9202,16 +8493,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9238,16 +8526,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9274,16 +8559,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9310,16 +8592,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9346,16 +8625,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9382,16 +8658,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9418,16 +8691,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9454,16 +8724,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9490,16 +8757,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9526,16 +8790,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9562,16 +8823,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9598,16 +8856,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9634,16 +8889,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9670,16 +8922,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9706,16 +8955,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9742,16 +8988,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9778,16 +9021,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9814,16 +9054,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9850,16 +9087,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9884,18 +9118,15 @@
         <v>1428451.851957942</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9922,16 +9153,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9958,16 +9186,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9994,16 +9219,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10030,16 +9252,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10066,16 +9285,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10102,16 +9318,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10138,16 +9351,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10174,16 +9384,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10210,16 +9417,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10246,16 +9450,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10282,16 +9483,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10318,16 +9516,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10354,16 +9549,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10390,16 +9582,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10426,16 +9615,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10460,18 +9646,15 @@
         <v>1467554.949257942</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10496,18 +9679,15 @@
         <v>1466118.820857942</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10534,16 +9714,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10570,16 +9747,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10606,16 +9780,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10642,16 +9813,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10678,16 +9846,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10714,16 +9879,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10750,16 +9912,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10786,16 +9945,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10822,16 +9978,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10858,16 +10011,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10894,16 +10044,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10930,16 +10077,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10966,16 +10110,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11002,16 +10143,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11038,16 +10176,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11074,16 +10209,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11110,16 +10242,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11146,16 +10275,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11182,16 +10308,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11218,16 +10341,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11254,16 +10374,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11290,16 +10407,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11326,16 +10440,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11362,16 +10473,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11398,16 +10506,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11434,16 +10539,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11470,16 +10572,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11506,16 +10605,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11542,16 +10638,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11578,16 +10671,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11614,16 +10704,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11650,16 +10737,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11686,16 +10770,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11722,16 +10803,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11756,18 +10834,15 @@
         <v>1421167.532757942</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11792,18 +10867,15 @@
         <v>1421167.532757942</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11828,18 +10900,15 @@
         <v>1414133.781757942</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11864,18 +10933,15 @@
         <v>1432713.737157942</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11900,18 +10966,15 @@
         <v>1429472.856057942</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11936,18 +10999,15 @@
         <v>1426053.421557942</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11972,18 +11032,15 @@
         <v>1426053.421557942</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12010,16 +11067,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12046,16 +11100,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12082,16 +11133,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12118,16 +11166,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12154,16 +11199,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12190,16 +11232,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12226,16 +11265,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12262,16 +11298,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12298,16 +11331,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12332,18 +11362,15 @@
         <v>1426757.006557942</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12370,16 +11397,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12406,16 +11430,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12440,18 +11461,15 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12476,18 +11494,15 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12512,18 +11527,15 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12548,18 +11560,15 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12584,18 +11593,15 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12620,18 +11626,15 @@
         <v>1431600.041057942</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12656,18 +11659,15 @@
         <v>1431600.041057942</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12692,18 +11692,15 @@
         <v>1431935.178257942</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12728,18 +11725,15 @@
         <v>1431935.178257942</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12764,18 +11758,15 @@
         <v>1435152.502457942</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12800,18 +11791,15 @@
         <v>1422240.372257942</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12836,18 +11824,15 @@
         <v>1420729.031857942</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12872,18 +11857,15 @@
         <v>1399352.981057941</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12908,18 +11890,15 @@
         <v>1440462.027757942</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12944,18 +11923,15 @@
         <v>1413935.071257941</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12980,18 +11956,15 @@
         <v>1412500.301957941</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13016,18 +11989,15 @@
         <v>1421414.677535371</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13052,18 +12022,15 @@
         <v>1420808.677535371</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13088,18 +12055,15 @@
         <v>1420808.677535371</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13124,18 +12088,15 @@
         <v>1420808.677535371</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13160,18 +12121,15 @@
         <v>1420808.677535371</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13196,18 +12154,15 @@
         <v>1436802.978335371</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13232,18 +12187,15 @@
         <v>1409671.677835372</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13268,18 +12220,15 @@
         <v>1409671.677835372</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13304,18 +12253,15 @@
         <v>1409671.677835372</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13340,18 +12286,15 @@
         <v>1360091.677835372</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13376,18 +12319,15 @@
         <v>1360091.677835372</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13412,18 +12352,15 @@
         <v>1366705.831835372</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13448,18 +12385,15 @@
         <v>1360460.900435372</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13484,18 +12418,15 @@
         <v>1361576.265635372</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13520,18 +12451,15 @@
         <v>1361576.265635372</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13556,18 +12484,15 @@
         <v>1361576.265635372</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13592,18 +12517,15 @@
         <v>1361576.265635372</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13630,16 +12552,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13666,16 +12585,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13702,16 +12618,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13736,18 +12649,15 @@
         <v>1329931.053235372</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13772,18 +12682,15 @@
         <v>1329931.053235372</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13808,18 +12715,15 @@
         <v>1329381.710935372</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13844,18 +12748,15 @@
         <v>1329381.710935372</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13880,18 +12781,15 @@
         <v>1330261.079535372</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13916,18 +12814,15 @@
         <v>1330261.079535372</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -13954,18 +12849,15 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest XEM.xlsx
+++ b/BackTest/2019-10-17 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>213381.8963619</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>211392.8393619</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>45.3</v>
@@ -523,7 +523,7 @@
         <v>213232.8393619</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>45.1</v>
@@ -562,7 +562,7 @@
         <v>213232.8393619</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>45.2</v>
@@ -601,7 +601,7 @@
         <v>226470.9338619</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>45.2</v>
@@ -640,7 +640,7 @@
         <v>221076.0553619</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>45.3</v>
@@ -679,7 +679,7 @@
         <v>247373.3753619</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>45.2</v>
@@ -718,7 +718,7 @@
         <v>236694.5688619</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>45.4</v>
@@ -757,7 +757,7 @@
         <v>237756.5688619</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>45.3</v>
@@ -796,7 +796,7 @@
         <v>237756.5688619</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>45.5</v>
@@ -835,7 +835,7 @@
         <v>242209.6204619</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>45.5</v>
@@ -874,7 +874,7 @@
         <v>306598.0033238</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>45.6</v>
@@ -913,7 +913,7 @@
         <v>103021.38541112</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>46.2</v>
@@ -952,7 +952,7 @@
         <v>104576.0904111201</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>45.7</v>
@@ -991,7 +991,7 @@
         <v>105548.1888111201</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>45.9</v>
@@ -1030,7 +1030,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>46.1</v>
@@ -1069,7 +1069,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>46.2</v>
@@ -1108,7 +1108,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>46.2</v>
@@ -1147,7 +1147,7 @@
         <v>121620.52691112</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>46.2</v>
@@ -1186,7 +1186,7 @@
         <v>122515.72671112</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>46.2</v>
@@ -1225,7 +1225,7 @@
         <v>122515.72671112</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>46.4</v>
@@ -1264,7 +1264,7 @@
         <v>134041.95141112</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>46.4</v>
@@ -1303,7 +1303,7 @@
         <v>141241.95141112</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>46.5</v>
@@ -1342,7 +1342,7 @@
         <v>141241.95141112</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>46.7</v>
@@ -1381,7 +1381,7 @@
         <v>152303.66761112</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>46.7</v>
@@ -1420,7 +1420,7 @@
         <v>154925.29351112</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>46.8</v>
@@ -1459,7 +1459,7 @@
         <v>231252.16761112</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>47</v>
@@ -1498,9 +1498,11 @@
         <v>155904.70461112</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>47.6</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1535,9 +1537,11 @@
         <v>220049.5183754</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1572,9 +1576,11 @@
         <v>219859.5183754</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>47.6</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1609,9 +1615,11 @@
         <v>219859.5183754</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1646,9 +1654,11 @@
         <v>223563.1788754</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1683,9 +1693,11 @@
         <v>282860.8892754</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>47.3</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1720,9 +1732,11 @@
         <v>282860.8892754</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>47.5</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1757,9 +1771,11 @@
         <v>262761.8634754</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>47.5</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1794,9 +1810,11 @@
         <v>272286.8715754</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>47.2</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1831,9 +1849,11 @@
         <v>317812.35951112</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>47.5</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1868,9 +1888,11 @@
         <v>351967.07291112</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>47.6</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1905,9 +1927,11 @@
         <v>337031.33121112</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1942,9 +1966,11 @@
         <v>351708.90511112</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>47.5</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1979,9 +2005,11 @@
         <v>376029.39511112</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2016,9 +2044,11 @@
         <v>376029.39511112</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2053,9 +2083,11 @@
         <v>376029.39511112</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2090,9 +2122,11 @@
         <v>376029.39511112</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2127,9 +2161,11 @@
         <v>381327.08171112</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2164,9 +2200,11 @@
         <v>421720.53231112</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>48</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2201,9 +2239,11 @@
         <v>449672.94051112</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>48.2</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2238,9 +2278,11 @@
         <v>470131.64371112</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2275,9 +2317,11 @@
         <v>502654.69921112</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2312,9 +2356,11 @@
         <v>502654.69921112</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2349,9 +2395,11 @@
         <v>502654.69921112</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2386,9 +2434,11 @@
         <v>481561.97121112</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2423,9 +2473,11 @@
         <v>499886.60471112</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>48.4</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2460,9 +2512,11 @@
         <v>499886.60471112</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2497,9 +2551,11 @@
         <v>516580.44711112</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>48.5</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2534,9 +2590,11 @@
         <v>516580.44711112</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2571,9 +2629,11 @@
         <v>525881.26081112</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>48.6</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2608,9 +2668,11 @@
         <v>525881.26081112</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>48.7</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2645,9 +2707,11 @@
         <v>724959.23691112</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>48.7</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2978,16 +3042,18 @@
         <v>1351219.41991112</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
       <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -3017,7 +3083,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3050,7 +3120,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3079,11 +3153,15 @@
         <v>1348980.28725556</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3116,7 +3194,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3149,7 +3231,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3182,7 +3268,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3215,7 +3305,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3248,7 +3342,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3281,7 +3379,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3314,7 +3416,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3347,7 +3453,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3380,7 +3490,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3413,7 +3527,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3446,7 +3564,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3479,7 +3601,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3512,7 +3638,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3545,7 +3675,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3578,7 +3712,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3607,14 +3745,16 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3640,7 +3780,7 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3673,7 +3813,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3706,7 +3846,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4036,7 +4176,7 @@
         <v>882461.3618359</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4069,7 +4209,7 @@
         <v>866710.0388359</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4102,7 +4242,7 @@
         <v>851213.6208359001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4135,7 +4275,7 @@
         <v>846364.2614359001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4201,7 +4341,7 @@
         <v>865361.6492359</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4267,7 +4407,7 @@
         <v>875937.1533359</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4300,7 +4440,7 @@
         <v>844930.3229359001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4333,7 +4473,7 @@
         <v>844930.3229359001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4366,7 +4506,7 @@
         <v>854981.9212359</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4564,7 +4704,7 @@
         <v>774419.3701359001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4597,7 +4737,7 @@
         <v>761419.4932359001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4630,7 +4770,7 @@
         <v>800399.8670359</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4663,7 +4803,7 @@
         <v>800399.8670359</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4696,7 +4836,7 @@
         <v>800399.8670359</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4729,7 +4869,7 @@
         <v>780267.3872359</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4762,7 +4902,7 @@
         <v>730022.9304359</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4795,7 +4935,7 @@
         <v>730617.0394359</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4828,7 +4968,7 @@
         <v>716491.7561359</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4861,7 +5001,7 @@
         <v>716491.7561359</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4894,7 +5034,7 @@
         <v>716491.7561359</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4927,7 +5067,7 @@
         <v>716491.7561359</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4960,7 +5100,7 @@
         <v>718532.8710359001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4993,7 +5133,7 @@
         <v>718532.8710359001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5026,7 +5166,7 @@
         <v>710018.5079359001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5059,7 +5199,7 @@
         <v>750036.2591359001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5092,7 +5232,7 @@
         <v>832993.1392359</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5290,7 +5430,7 @@
         <v>769221.3540359</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5323,7 +5463,7 @@
         <v>788821.3540359</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5356,7 +5496,7 @@
         <v>788863.2225359</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5389,7 +5529,7 @@
         <v>788852.2225359</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5488,7 +5628,7 @@
         <v>867821.8516644699</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5521,7 +5661,7 @@
         <v>872915.7662644699</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5620,7 +5760,7 @@
         <v>1018130.68512826</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5653,7 +5793,7 @@
         <v>996913.97272826</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5950,7 +6090,7 @@
         <v>1362654.46102826</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5983,7 +6123,7 @@
         <v>1349173.08842826</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6016,7 +6156,7 @@
         <v>1381323.33532826</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6082,7 +6222,7 @@
         <v>1314545.11262826</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6478,7 +6618,7 @@
         <v>1198017.167243491</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6577,7 +6717,7 @@
         <v>1026200.908543491</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6610,7 +6750,7 @@
         <v>1026848.736343491</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6709,7 +6849,7 @@
         <v>1003413.405713721</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6775,7 +6915,7 @@
         <v>1005591.523213721</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6808,7 +6948,7 @@
         <v>1003391.523213721</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6940,7 +7080,7 @@
         <v>1009996.139013721</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6973,7 +7113,7 @@
         <v>1009996.139013721</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7039,7 +7179,7 @@
         <v>1005805.813413721</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7105,7 +7245,7 @@
         <v>1045186.436013721</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7138,7 +7278,7 @@
         <v>1045186.436013721</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7171,7 +7311,7 @@
         <v>1056586.436013721</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7204,7 +7344,7 @@
         <v>1103358.242913721</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7237,7 +7377,7 @@
         <v>1002542.000013721</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7270,7 +7410,7 @@
         <v>1110108.568013721</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7303,7 +7443,7 @@
         <v>1114611.073113721</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7798,7 +7938,7 @@
         <v>1524152.792713721</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7831,7 +7971,7 @@
         <v>1524152.792713721</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7897,7 +8037,7 @@
         <v>1511219.576813721</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8194,7 +8334,7 @@
         <v>1475432.757913721</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8227,7 +8367,7 @@
         <v>1475432.757913721</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8260,7 +8400,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8293,7 +8433,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8326,7 +8466,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8359,7 +8499,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8392,7 +8532,7 @@
         <v>1501712.765638071</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8425,7 +8565,7 @@
         <v>1501712.765638071</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8458,7 +8598,7 @@
         <v>1488544.855438071</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8491,7 +8631,7 @@
         <v>1488544.855438071</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8524,7 +8664,7 @@
         <v>1488161.038938071</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8557,7 +8697,7 @@
         <v>1491563.716938071</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8590,7 +8730,7 @@
         <v>1494721.440438071</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8623,7 +8763,7 @@
         <v>1494721.440438071</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9019,7 +9159,7 @@
         <v>1432417.419457942</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9052,7 +9192,7 @@
         <v>1419369.586957942</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9085,7 +9225,7 @@
         <v>1419369.586957942</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9118,7 +9258,7 @@
         <v>1428451.851957942</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9646,7 +9786,7 @@
         <v>1467554.949257942</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9679,7 +9819,7 @@
         <v>1466118.820857942</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9976,7 +10116,7 @@
         <v>1472829.139357942</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10009,7 +10149,7 @@
         <v>1472829.139357942</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10042,7 +10182,7 @@
         <v>1472932.565857942</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10075,7 +10215,7 @@
         <v>1471430.732557942</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10108,7 +10248,7 @@
         <v>1466130.832157942</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10141,7 +10281,7 @@
         <v>1466638.057057942</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10174,7 +10314,7 @@
         <v>1466648.057057942</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10240,7 +10380,7 @@
         <v>1299692.662057942</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10273,7 +10413,7 @@
         <v>1300345.977457942</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10834,7 +10974,7 @@
         <v>1421167.532757942</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10867,7 +11007,7 @@
         <v>1421167.532757942</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10900,7 +11040,7 @@
         <v>1414133.781757942</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10933,7 +11073,7 @@
         <v>1432713.737157942</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10966,7 +11106,7 @@
         <v>1429472.856057942</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10999,7 +11139,7 @@
         <v>1426053.421557942</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11032,7 +11172,7 @@
         <v>1426053.421557942</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11362,7 +11502,7 @@
         <v>1426757.006557942</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11461,7 +11601,7 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11494,7 +11634,7 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11527,7 +11667,7 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11560,7 +11700,7 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11593,7 +11733,7 @@
         <v>1429798.403157942</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11626,7 +11766,7 @@
         <v>1431600.041057942</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11659,7 +11799,7 @@
         <v>1431600.041057942</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11692,7 +11832,7 @@
         <v>1431935.178257942</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11725,7 +11865,7 @@
         <v>1431935.178257942</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11758,7 +11898,7 @@
         <v>1435152.502457942</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11791,7 +11931,7 @@
         <v>1422240.372257942</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11824,7 +11964,7 @@
         <v>1420729.031857942</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11857,7 +11997,7 @@
         <v>1399352.981057941</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11890,7 +12030,7 @@
         <v>1440462.027757942</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11923,7 +12063,7 @@
         <v>1413935.071257941</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11956,7 +12096,7 @@
         <v>1412500.301957941</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11989,7 +12129,7 @@
         <v>1421414.677535371</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12022,7 +12162,7 @@
         <v>1420808.677535371</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12055,7 +12195,7 @@
         <v>1420808.677535371</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12088,7 +12228,7 @@
         <v>1420808.677535371</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12121,7 +12261,7 @@
         <v>1420808.677535371</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12154,7 +12294,7 @@
         <v>1436802.978335371</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12187,7 +12327,7 @@
         <v>1409671.677835372</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12220,7 +12360,7 @@
         <v>1409671.677835372</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12253,7 +12393,7 @@
         <v>1409671.677835372</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12286,7 +12426,7 @@
         <v>1360091.677835372</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12319,7 +12459,7 @@
         <v>1360091.677835372</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12352,7 +12492,7 @@
         <v>1366705.831835372</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12385,7 +12525,7 @@
         <v>1360460.900435372</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12418,7 +12558,7 @@
         <v>1361576.265635372</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12451,7 +12591,7 @@
         <v>1361576.265635372</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12484,7 +12624,7 @@
         <v>1361576.265635372</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12517,7 +12657,7 @@
         <v>1361576.265635372</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12649,7 +12789,7 @@
         <v>1329931.053235372</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12682,7 +12822,7 @@
         <v>1329931.053235372</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12715,7 +12855,7 @@
         <v>1329381.710935372</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12748,7 +12888,7 @@
         <v>1329381.710935372</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12781,7 +12921,7 @@
         <v>1330261.079535372</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12814,7 +12954,7 @@
         <v>1330261.079535372</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12858,6 +12998,6 @@
       <c r="M368" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest XEM.xlsx
+++ b/BackTest/2019-10-17 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -835,11 +835,9 @@
         <v>242209.6204619</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>45.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +872,9 @@
         <v>306598.0033238</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +909,9 @@
         <v>103021.38541112</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>46.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +946,9 @@
         <v>104576.0904111201</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>45.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,11 +983,9 @@
         <v>105548.1888111201</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1030,11 +1020,9 @@
         <v>121620.52691112</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>46.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1069,11 +1057,9 @@
         <v>121620.52691112</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>46.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,11 +1094,9 @@
         <v>121620.52691112</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>46.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1147,11 +1131,9 @@
         <v>121620.52691112</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,20 +1168,16 @@
         <v>122515.72671112</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>46.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1225,17 +1203,11 @@
         <v>122515.72671112</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1236,11 @@
         <v>134041.95141112</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>46.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1269,11 @@
         <v>141241.95141112</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>46.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1302,11 @@
         <v>141241.95141112</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>46.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1335,11 @@
         <v>152303.66761112</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>46.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1368,11 @@
         <v>154925.29351112</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>46.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1401,11 @@
         <v>231252.16761112</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>47</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1434,11 @@
         <v>155904.70461112</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>47.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1467,11 @@
         <v>220049.5183754</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>47.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1500,11 @@
         <v>219859.5183754</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>47.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1533,11 @@
         <v>219859.5183754</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>47.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1566,11 @@
         <v>223563.1788754</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>47.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1599,11 @@
         <v>282860.8892754</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>47.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1632,11 @@
         <v>282860.8892754</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>47.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1665,11 @@
         <v>262761.8634754</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>47.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1698,11 @@
         <v>272286.8715754</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>47.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1731,11 @@
         <v>317812.35951112</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>47.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1888,17 +1764,11 @@
         <v>351967.07291112</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>47.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1797,11 @@
         <v>337031.33121112</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>47.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1830,11 @@
         <v>351708.90511112</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1863,11 @@
         <v>376029.39511112</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>47.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +1896,11 @@
         <v>376029.39511112</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>47.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,17 +1929,11 @@
         <v>376029.39511112</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>47.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,17 +1962,11 @@
         <v>376029.39511112</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>47.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2161,17 +1995,11 @@
         <v>381327.08171112</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>47.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2200,17 +2028,11 @@
         <v>421720.53231112</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>48</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2239,17 +2061,11 @@
         <v>449672.94051112</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>48.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2278,17 +2094,11 @@
         <v>470131.64371112</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>48.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2317,17 +2127,11 @@
         <v>502654.69921112</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2356,17 +2160,11 @@
         <v>502654.69921112</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2395,17 +2193,11 @@
         <v>502654.69921112</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2434,17 +2226,11 @@
         <v>481561.97121112</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2473,17 +2259,11 @@
         <v>499886.60471112</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>48.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2512,17 +2292,11 @@
         <v>499886.60471112</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2551,17 +2325,11 @@
         <v>516580.44711112</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>48.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2590,17 +2358,11 @@
         <v>516580.44711112</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2629,17 +2391,11 @@
         <v>525881.26081112</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>48.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2668,17 +2424,11 @@
         <v>525881.26081112</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>48.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2707,17 +2457,11 @@
         <v>724959.23691112</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2750,11 +2494,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2787,11 +2527,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2824,11 +2560,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2593,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2898,11 +2626,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2935,11 +2659,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2972,11 +2692,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3009,11 +2725,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3046,11 +2758,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3083,11 +2791,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3120,11 +2824,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +2857,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3194,11 +2890,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3231,11 +2923,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3268,11 +2956,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3305,11 +2989,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3022,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3379,11 +3055,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3416,11 +3088,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3121,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3154,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3527,11 +3187,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3564,11 +3220,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3601,11 +3253,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3638,11 +3286,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3675,11 +3319,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3712,11 +3352,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3745,16 +3381,14 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3780,7 +3414,7 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3813,7 +3447,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3846,7 +3480,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4176,7 +3810,7 @@
         <v>882461.3618359</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4209,7 +3843,7 @@
         <v>866710.0388359</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4242,7 +3876,7 @@
         <v>851213.6208359001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4275,7 +3909,7 @@
         <v>846364.2614359001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4341,7 +3975,7 @@
         <v>865361.6492359</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4407,7 +4041,7 @@
         <v>875937.1533359</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4440,7 +4074,7 @@
         <v>844930.3229359001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4473,7 +4107,7 @@
         <v>844930.3229359001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4506,7 +4140,7 @@
         <v>854981.9212359</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4704,7 +4338,7 @@
         <v>774419.3701359001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4737,7 +4371,7 @@
         <v>761419.4932359001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4770,7 +4404,7 @@
         <v>800399.8670359</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4803,7 +4437,7 @@
         <v>800399.8670359</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4836,7 +4470,7 @@
         <v>800399.8670359</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4869,7 +4503,7 @@
         <v>780267.3872359</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4902,7 +4536,7 @@
         <v>730022.9304359</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4935,7 +4569,7 @@
         <v>730617.0394359</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4968,7 +4602,7 @@
         <v>716491.7561359</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5001,7 +4635,7 @@
         <v>716491.7561359</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5034,7 +4668,7 @@
         <v>716491.7561359</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -6618,7 +6252,7 @@
         <v>1198017.167243491</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6717,7 +6351,7 @@
         <v>1026200.908543491</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6750,7 +6384,7 @@
         <v>1026848.736343491</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6849,7 +6483,7 @@
         <v>1003413.405713721</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6915,7 +6549,7 @@
         <v>1005591.523213721</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6948,7 +6582,7 @@
         <v>1003391.523213721</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7080,7 +6714,7 @@
         <v>1009996.139013721</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7113,7 +6747,7 @@
         <v>1009996.139013721</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7179,7 +6813,7 @@
         <v>1005805.813413721</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7245,7 +6879,7 @@
         <v>1045186.436013721</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7278,7 +6912,7 @@
         <v>1045186.436013721</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7311,7 +6945,7 @@
         <v>1056586.436013721</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7344,7 +6978,7 @@
         <v>1103358.242913721</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7377,7 +7011,7 @@
         <v>1002542.000013721</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7410,7 +7044,7 @@
         <v>1110108.568013721</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7443,7 +7077,7 @@
         <v>1114611.073113721</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8367,7 +8001,7 @@
         <v>1475432.757913721</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8400,7 +8034,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8433,7 +8067,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8466,7 +8100,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8499,7 +8133,7 @@
         <v>1473512.765638071</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8532,7 +8166,7 @@
         <v>1501712.765638071</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8565,7 +8199,7 @@
         <v>1501712.765638071</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8598,7 +8232,7 @@
         <v>1488544.855438071</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8631,7 +8265,7 @@
         <v>1488544.855438071</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8664,7 +8298,7 @@
         <v>1488161.038938071</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8697,7 +8331,7 @@
         <v>1491563.716938071</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8730,7 +8364,7 @@
         <v>1494721.440438071</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8763,7 +8397,7 @@
         <v>1494721.440438071</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9159,7 +8793,7 @@
         <v>1432417.419457942</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9192,7 +8826,7 @@
         <v>1419369.586957942</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9225,7 +8859,7 @@
         <v>1419369.586957942</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9258,7 +8892,7 @@
         <v>1428451.851957942</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10116,7 +9750,7 @@
         <v>1472829.139357942</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10149,7 +9783,7 @@
         <v>1472829.139357942</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10182,7 +9816,7 @@
         <v>1472932.565857942</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10215,7 +9849,7 @@
         <v>1471430.732557942</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10248,7 +9882,7 @@
         <v>1466130.832157942</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10281,7 +9915,7 @@
         <v>1466638.057057942</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10314,7 +9948,7 @@
         <v>1466648.057057942</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10380,7 +10014,7 @@
         <v>1299692.662057942</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10413,7 +10047,7 @@
         <v>1300345.977457942</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -12998,6 +12632,6 @@
       <c r="M368" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest XEM.xlsx
+++ b/BackTest/2019-10-17 BackTest XEM.xlsx
@@ -835,9 +835,11 @@
         <v>242209.6204619</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>45.5</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,9 +874,11 @@
         <v>306598.0033238</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45.6</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -909,9 +913,11 @@
         <v>103021.38541112</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>46.2</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -946,9 +952,11 @@
         <v>104576.0904111201</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45.7</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -983,9 +991,11 @@
         <v>105548.1888111201</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>45.9</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1020,9 +1030,11 @@
         <v>121620.52691112</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1057,9 +1069,11 @@
         <v>121620.52691112</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>46.2</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1168,16 +1182,20 @@
         <v>122515.72671112</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>46.2</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1203,11 +1221,15 @@
         <v>122515.72671112</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1236,11 +1258,15 @@
         <v>134041.95141112</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,11 +1295,15 @@
         <v>141241.95141112</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1302,11 +1332,15 @@
         <v>141241.95141112</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1335,11 +1369,15 @@
         <v>152303.66761112</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1368,11 +1406,15 @@
         <v>154925.29351112</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1401,11 +1443,15 @@
         <v>231252.16761112</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1434,11 +1480,15 @@
         <v>155904.70461112</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1467,11 +1517,15 @@
         <v>220049.5183754</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1500,11 +1554,15 @@
         <v>219859.5183754</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1533,11 +1591,15 @@
         <v>219859.5183754</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1566,11 +1628,15 @@
         <v>223563.1788754</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1599,11 +1665,15 @@
         <v>282860.8892754</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1632,11 +1702,15 @@
         <v>282860.8892754</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1665,11 +1739,15 @@
         <v>262761.8634754</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1698,11 +1776,15 @@
         <v>272286.8715754</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1731,11 +1813,15 @@
         <v>317812.35951112</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1764,11 +1850,15 @@
         <v>351967.07291112</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1797,11 +1887,15 @@
         <v>337031.33121112</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1830,11 +1924,15 @@
         <v>351708.90511112</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1863,11 +1961,15 @@
         <v>376029.39511112</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1998,15 @@
         <v>376029.39511112</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1929,11 +2035,15 @@
         <v>376029.39511112</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1962,11 +2072,15 @@
         <v>376029.39511112</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1995,11 +2109,15 @@
         <v>381327.08171112</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2028,11 +2146,15 @@
         <v>421720.53231112</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2061,11 +2183,15 @@
         <v>449672.94051112</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2094,11 +2220,15 @@
         <v>470131.64371112</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2131,7 +2261,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2164,7 +2298,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2197,7 +2335,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2230,7 +2372,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2263,7 +2409,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2296,7 +2446,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2329,7 +2483,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2362,7 +2520,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2395,7 +2557,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2428,7 +2594,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2461,7 +2631,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2494,7 +2668,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2527,7 +2705,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2560,7 +2742,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2593,7 +2779,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2626,7 +2816,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2659,7 +2853,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2692,7 +2890,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2725,7 +2927,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2758,7 +2964,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2791,7 +3001,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2824,7 +3038,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2857,7 +3075,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2890,7 +3112,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2919,14 +3145,16 @@
         <v>1383644.91668414</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2952,7 +3180,7 @@
         <v>1406785.03458414</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2985,7 +3213,7 @@
         <v>1519143.80438414</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3018,7 +3246,7 @@
         <v>1587773.74448414</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3051,7 +3279,7 @@
         <v>1587773.74448414</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3084,7 +3312,7 @@
         <v>1452740.4708757</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3117,7 +3345,7 @@
         <v>1543549.2594757</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3150,7 +3378,7 @@
         <v>1482577.6890757</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3183,7 +3411,7 @@
         <v>1196254.9885359</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3216,7 +3444,7 @@
         <v>1265121.6630359</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3249,7 +3477,7 @@
         <v>1014956.2696359</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3282,7 +3510,7 @@
         <v>1014956.2696359</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3315,7 +3543,7 @@
         <v>1028524.5843359</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3348,7 +3576,7 @@
         <v>976483.3515359001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3381,7 +3609,7 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3414,7 +3642,7 @@
         <v>994347.9696359001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3447,7 +3675,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3480,7 +3708,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3513,7 +3741,7 @@
         <v>1055200.0032359</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3546,7 +3774,7 @@
         <v>1045254.2036359</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3579,7 +3807,7 @@
         <v>1067681.2173359</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3612,7 +3840,7 @@
         <v>1039726.2173359</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3645,7 +3873,7 @@
         <v>1039726.2173359</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3711,7 +3939,7 @@
         <v>1001374.5407359</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3744,7 +3972,7 @@
         <v>910118.5180359</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3777,7 +4005,7 @@
         <v>882461.3618359</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3843,7 +4071,7 @@
         <v>866710.0388359</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
